--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.842271293375394</v>
+        <v>0.812680115273775</v>
       </c>
       <c r="C2" t="n">
-        <v>0.893909626719057</v>
+        <v>0.883802816901408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.814332247557003</v>
+        <v>0.791044776119403</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.489510489510489</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="C3" t="n">
-        <v>0.756207674943567</v>
+        <v>0.749343832020997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.707903780068729</v>
+        <v>0.653027823240589</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.802768166089965</v>
+        <v>0.769352290679305</v>
       </c>
       <c r="C4" t="n">
-        <v>0.804819277108434</v>
+        <v>0.807313642756681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.776951672862454</v>
+        <v>0.695804195804196</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.731543624161074</v>
+        <v>0.717987804878049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.707692307692308</v>
+        <v>0.695090439276486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.815217391304348</v>
+        <v>0.723509933774834</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.815642458100559</v>
+        <v>0.771356783919598</v>
       </c>
       <c r="C6" t="n">
-        <v>0.803571428571428</v>
+        <v>0.803964757709251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.838888888888889</v>
+        <v>0.731506849315069</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.870036101083033</v>
+        <v>0.831404958677686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.876889848812095</v>
+        <v>0.869785082174463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.850847457627119</v>
+        <v>0.777594728171334</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.86096256684492</v>
+        <v>0.809756097560976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.807829181494662</v>
+        <v>0.809012875536481</v>
       </c>
       <c r="D8" t="n">
-        <v>0.794285714285714</v>
+        <v>0.727762803234501</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.709497206703911</v>
+        <v>0.661417322834646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.644128113879004</v>
+        <v>0.668122270742358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.701657458563536</v>
+        <v>0.626666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.725146198830409</v>
+        <v>0.638297872340426</v>
       </c>
       <c r="C10" t="n">
-        <v>0.808362369337979</v>
+        <v>0.808278867102396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.75</v>
+        <v>0.701949860724234</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.542372881355932</v>
+        <v>0.537634408602151</v>
       </c>
       <c r="C11" t="n">
-        <v>0.641025641025641</v>
+        <v>0.594713656387665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.587878787878788</v>
+        <v>0.50140056022409</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -410,7 +410,7 @@
         <v>0.883802816901408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.791044776119403</v>
+        <v>0.790560471976401</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v>0.749343832020997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.653027823240589</v>
+        <v>0.653658536585366</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.807313642756681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.695804195804196</v>
+        <v>0.695501730103806</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.695090439276486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723509933774834</v>
+        <v>0.721311475409836</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.803964757709251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.731506849315069</v>
+        <v>0.731707317073171</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
         <v>0.869785082174463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.777594728171334</v>
+        <v>0.778140293637847</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>0.809012875536481</v>
       </c>
       <c r="D8" t="n">
-        <v>0.727762803234501</v>
+        <v>0.728723404255319</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>0.668122270742358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.626666666666667</v>
+        <v>0.628647214854111</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.808278867102396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.701949860724234</v>
+        <v>0.702479338842975</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>0.594713656387665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.50140056022409</v>
+        <v>0.504178272980501</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -404,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.812680115273775</v>
+        <v>0.819230769230769</v>
       </c>
       <c r="C2" t="n">
         <v>0.883802816901408</v>
       </c>
       <c r="D2" t="n">
-        <v>0.790560471976401</v>
+        <v>0.781771501925546</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.492063492063492</v>
+        <v>0.487908961593172</v>
       </c>
       <c r="C3" t="n">
         <v>0.749343832020997</v>
       </c>
       <c r="D3" t="n">
-        <v>0.653658536585366</v>
+        <v>0.645980253878702</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.769352290679305</v>
+        <v>0.773504273504274</v>
       </c>
       <c r="C4" t="n">
         <v>0.807313642756681</v>
       </c>
       <c r="D4" t="n">
-        <v>0.695501730103806</v>
+        <v>0.682634730538922</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +446,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.717987804878049</v>
+        <v>0.726902173913044</v>
       </c>
       <c r="C5" t="n">
         <v>0.695090439276486</v>
       </c>
       <c r="D5" t="n">
-        <v>0.721311475409836</v>
+        <v>0.723252496433666</v>
       </c>
     </row>
     <row r="6">
@@ -460,13 +460,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.771356783919598</v>
+        <v>0.77116704805492</v>
       </c>
       <c r="C6" t="n">
         <v>0.803964757709251</v>
       </c>
       <c r="D6" t="n">
-        <v>0.731707317073171</v>
+        <v>0.716981132075472</v>
       </c>
     </row>
     <row r="7">
@@ -474,13 +474,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.831404958677686</v>
+        <v>0.83625730994152</v>
       </c>
       <c r="C7" t="n">
         <v>0.869785082174463</v>
       </c>
       <c r="D7" t="n">
-        <v>0.778140293637847</v>
+        <v>0.774468085106383</v>
       </c>
     </row>
     <row r="8">
@@ -488,13 +488,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.809756097560976</v>
+        <v>0.814732142857143</v>
       </c>
       <c r="C8" t="n">
         <v>0.809012875536481</v>
       </c>
       <c r="D8" t="n">
-        <v>0.728723404255319</v>
+        <v>0.723502304147465</v>
       </c>
     </row>
     <row r="9">
@@ -502,13 +502,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661417322834646</v>
+        <v>0.667469879518072</v>
       </c>
       <c r="C9" t="n">
         <v>0.668122270742358</v>
       </c>
       <c r="D9" t="n">
-        <v>0.628647214854111</v>
+        <v>0.625287356321839</v>
       </c>
     </row>
     <row r="10">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.638297872340426</v>
+        <v>0.643203883495146</v>
       </c>
       <c r="C10" t="n">
         <v>0.808278867102396</v>
       </c>
       <c r="D10" t="n">
-        <v>0.702479338842975</v>
+        <v>0.676258992805755</v>
       </c>
     </row>
     <row r="11">
@@ -530,13 +530,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.537634408602151</v>
+        <v>0.549261083743842</v>
       </c>
       <c r="C11" t="n">
         <v>0.594713656387665</v>
       </c>
       <c r="D11" t="n">
-        <v>0.504178272980501</v>
+        <v>0.490243902439024</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -12,48 +12,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">solidarity_support_billionaire_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_corporate_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_expanding_security_council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_foreign_aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_debt_relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_bridgetown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_loss_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_ncqg_300bn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_shipping_levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_aviation_levy</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from shipping,
+financing countries' budgets in proportion to their population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levy on aviation carbon emissions,
+returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -398,145 +428,376 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.819230769230769</v>
+        <v>0.882311787886913</v>
       </c>
       <c r="C2" t="n">
-        <v>0.883802816901408</v>
+        <v>0.835265391270195</v>
       </c>
       <c r="D2" t="n">
-        <v>0.781771501925546</v>
+        <v>0.891845465876444</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.848739495798319</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.804974898459351</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.858590657097981</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.808041167102071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7673900003213</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.850620047411955</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.869981415542738</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.487908961593172</v>
+        <v>0.750739195542627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.749343832020997</v>
+        <v>0.769964359159934</v>
       </c>
       <c r="D3" t="n">
-        <v>0.645980253878702</v>
+        <v>0.804622017545113</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.662768031189084</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.653622409541716</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.745651131418876</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.655092269468832</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.465366208193785</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.77643328813695</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.834872782426455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.773504273504274</v>
+        <v>0.729933253558685</v>
       </c>
       <c r="C4" t="n">
-        <v>0.807313642756681</v>
+        <v>0.796859870834021</v>
       </c>
       <c r="D4" t="n">
-        <v>0.682634730538922</v>
+        <v>0.868105817449614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.676092544987147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.699150215162023</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.854072321219458</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.80520312573555</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.745640434070217</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.775483639817724</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.814475179750404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.726902173913044</v>
+        <v>0.690102245636858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.695090439276486</v>
+        <v>0.670671474272231</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723252496433666</v>
+        <v>0.794932281558348</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.554865424430642</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.675219764232272</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.874708240508543</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.775298156234713</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.560771865014251</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.603490722088598</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.847304851895872</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.77116704805492</v>
+        <v>0.699026043341317</v>
       </c>
       <c r="C6" t="n">
-        <v>0.803964757709251</v>
+        <v>0.693511584615887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.716981132075472</v>
+        <v>0.840880367422826</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.764302059496567</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.711094425466561</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.890599357629463</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.704115857318933</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.608970325575742</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.645362001346973</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.657662970737284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.83625730994152</v>
+        <v>0.80087487135002</v>
       </c>
       <c r="C7" t="n">
-        <v>0.869785082174463</v>
+        <v>0.828764927400176</v>
       </c>
       <c r="D7" t="n">
-        <v>0.774468085106383</v>
+        <v>0.923495317915449</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.719367588932806</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.773306850031249</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.875952011723572</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.831499008225719</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.726228192624501</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.779764819115075</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.819976537739145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.814732142857143</v>
+        <v>0.755888330294044</v>
       </c>
       <c r="C8" t="n">
-        <v>0.809012875536481</v>
+        <v>0.780224042667291</v>
       </c>
       <c r="D8" t="n">
-        <v>0.723502304147465</v>
+        <v>0.830680787009039</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.757575757575758</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.727482951366797</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.900212013064445</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.748516118254185</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.698518805160747</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.74098564232264</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.833165261494275</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.667469879518072</v>
+        <v>0.706783771802235</v>
       </c>
       <c r="C9" t="n">
-        <v>0.668122270742358</v>
+        <v>0.723165045982685</v>
       </c>
       <c r="D9" t="n">
-        <v>0.625287356321839</v>
+        <v>0.775200652533349</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.485887096774194</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.671476533000662</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.860748896198369</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.722906485354665</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.544278234972607</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.627282147303349</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.738032995496398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.643203883495146</v>
+        <v>0.861975492002455</v>
       </c>
       <c r="C10" t="n">
-        <v>0.808278867102396</v>
+        <v>0.740907565751253</v>
       </c>
       <c r="D10" t="n">
-        <v>0.676258992805755</v>
+        <v>0.877257086350281</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.611111111111111</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.68455705435355</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.832506814399498</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.741253666495179</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.731465104530289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.783512580099027</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.827529333133845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.549261083743842</v>
+        <v>0.685259284535928</v>
       </c>
       <c r="C11" t="n">
-        <v>0.594713656387665</v>
+        <v>0.524835815174472</v>
       </c>
       <c r="D11" t="n">
-        <v>0.490243902439024</v>
+        <v>0.63952849064822</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.510288065843621</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.515905868166361</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.676722553222759</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.57666600884402</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.440481337271772</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.621402856155025</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.647518254073482</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -51,39 +51,39 @@
 wealth, in voluntary countries</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
 payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from shipping,
-financing countries' budgets in proportion to their population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levy on aviation carbon emissions,
-returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.882311787886913</v>
+        <v>0.871495939636358</v>
       </c>
       <c r="C2" t="n">
-        <v>0.835265391270195</v>
+        <v>0.82182715574949</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891845465876444</v>
+        <v>0.891705525159744</v>
       </c>
       <c r="E2" t="n">
         <v>0.848739495798319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.804974898459351</v>
+        <v>0.810169384469678</v>
       </c>
       <c r="G2" t="n">
-        <v>0.858590657097981</v>
+        <v>0.853985297618905</v>
       </c>
       <c r="H2" t="n">
-        <v>0.808041167102071</v>
+        <v>0.814359836289678</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7673900003213</v>
+        <v>0.800702579066555</v>
       </c>
       <c r="J2" t="n">
-        <v>0.850620047411955</v>
+        <v>0.854100765452465</v>
       </c>
       <c r="K2" t="n">
-        <v>0.869981415542738</v>
+        <v>0.83748051526923</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.750739195542627</v>
+        <v>0.844810664228624</v>
       </c>
       <c r="C3" t="n">
-        <v>0.769964359159934</v>
+        <v>0.726147552657877</v>
       </c>
       <c r="D3" t="n">
-        <v>0.804622017545113</v>
+        <v>0.876944666755124</v>
       </c>
       <c r="E3" t="n">
-        <v>0.662768031189084</v>
+        <v>0.611111111111111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.653622409541716</v>
+        <v>0.698169878063855</v>
       </c>
       <c r="G3" t="n">
-        <v>0.745651131418876</v>
+        <v>0.827832595175656</v>
       </c>
       <c r="H3" t="n">
-        <v>0.655092269468832</v>
+        <v>0.744200598817871</v>
       </c>
       <c r="I3" t="n">
-        <v>0.465366208193785</v>
+        <v>0.77860730059972</v>
       </c>
       <c r="J3" t="n">
-        <v>0.77643328813695</v>
+        <v>0.788891506704231</v>
       </c>
       <c r="K3" t="n">
-        <v>0.834872782426455</v>
+        <v>0.794309412277247</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.729933253558685</v>
+        <v>0.796908728551825</v>
       </c>
       <c r="C4" t="n">
-        <v>0.796859870834021</v>
+        <v>0.83828185549631</v>
       </c>
       <c r="D4" t="n">
-        <v>0.868105817449614</v>
+        <v>0.923236605957235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.676092544987147</v>
+        <v>0.719367588932806</v>
       </c>
       <c r="F4" t="n">
-        <v>0.699150215162023</v>
+        <v>0.786006828908474</v>
       </c>
       <c r="G4" t="n">
-        <v>0.854072321219458</v>
+        <v>0.87116664158716</v>
       </c>
       <c r="H4" t="n">
-        <v>0.80520312573555</v>
+        <v>0.83551452772497</v>
       </c>
       <c r="I4" t="n">
-        <v>0.745640434070217</v>
+        <v>0.763949004011529</v>
       </c>
       <c r="J4" t="n">
-        <v>0.775483639817724</v>
+        <v>0.786696565056701</v>
       </c>
       <c r="K4" t="n">
-        <v>0.814475179750404</v>
+        <v>0.792727954224717</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.690102245636858</v>
+        <v>0.756715883187528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.670671474272231</v>
+        <v>0.752290859118992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.794932281558348</v>
+        <v>0.804307931693326</v>
       </c>
       <c r="E5" t="n">
-        <v>0.554865424430642</v>
+        <v>0.662768031189084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.675219764232272</v>
+        <v>0.664871461592328</v>
       </c>
       <c r="G5" t="n">
-        <v>0.874708240508543</v>
+        <v>0.748195523864934</v>
       </c>
       <c r="H5" t="n">
-        <v>0.775298156234713</v>
+        <v>0.657503034741323</v>
       </c>
       <c r="I5" t="n">
-        <v>0.560771865014251</v>
+        <v>0.526253085296637</v>
       </c>
       <c r="J5" t="n">
-        <v>0.603490722088598</v>
+        <v>0.778332511202729</v>
       </c>
       <c r="K5" t="n">
-        <v>0.847304851895872</v>
+        <v>0.799932730970653</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.699026043341317</v>
+        <v>0.753618552474951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.693511584615887</v>
+        <v>0.777433285347556</v>
       </c>
       <c r="D6" t="n">
-        <v>0.840880367422826</v>
+        <v>0.830438991590445</v>
       </c>
       <c r="E6" t="n">
-        <v>0.764302059496567</v>
+        <v>0.757575757575758</v>
       </c>
       <c r="F6" t="n">
-        <v>0.711094425466561</v>
+        <v>0.734130511127814</v>
       </c>
       <c r="G6" t="n">
-        <v>0.890599357629463</v>
+        <v>0.895132707337567</v>
       </c>
       <c r="H6" t="n">
-        <v>0.704115857318933</v>
+        <v>0.751881169111925</v>
       </c>
       <c r="I6" t="n">
-        <v>0.608970325575742</v>
+        <v>0.726920731652911</v>
       </c>
       <c r="J6" t="n">
-        <v>0.645362001346973</v>
+        <v>0.746835477096753</v>
       </c>
       <c r="K6" t="n">
-        <v>0.657662970737284</v>
+        <v>0.769090905146804</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.80087487135002</v>
+        <v>0.729266795876485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.828764927400176</v>
+        <v>0.787053397379168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.923495317915449</v>
+        <v>0.868080473510684</v>
       </c>
       <c r="E7" t="n">
-        <v>0.719367588932806</v>
+        <v>0.676092544987147</v>
       </c>
       <c r="F7" t="n">
-        <v>0.773306850031249</v>
+        <v>0.713684091496764</v>
       </c>
       <c r="G7" t="n">
-        <v>0.875952011723572</v>
+        <v>0.848993050545021</v>
       </c>
       <c r="H7" t="n">
-        <v>0.831499008225719</v>
+        <v>0.801280626370841</v>
       </c>
       <c r="I7" t="n">
-        <v>0.726228192624501</v>
+        <v>0.761156138380908</v>
       </c>
       <c r="J7" t="n">
-        <v>0.779764819115075</v>
+        <v>0.772256444549169</v>
       </c>
       <c r="K7" t="n">
-        <v>0.819976537739145</v>
+        <v>0.791739725135049</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.755888330294044</v>
+        <v>0.702550240205576</v>
       </c>
       <c r="C8" t="n">
-        <v>0.780224042667291</v>
+        <v>0.714303774974921</v>
       </c>
       <c r="D8" t="n">
-        <v>0.830680787009039</v>
+        <v>0.775240566349454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.757575757575758</v>
+        <v>0.485887096774194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.727482951366797</v>
+        <v>0.673186680847185</v>
       </c>
       <c r="G8" t="n">
-        <v>0.900212013064445</v>
+        <v>0.855557125893547</v>
       </c>
       <c r="H8" t="n">
-        <v>0.748516118254185</v>
+        <v>0.726003062767208</v>
       </c>
       <c r="I8" t="n">
-        <v>0.698518805160747</v>
+        <v>0.59567500924059</v>
       </c>
       <c r="J8" t="n">
-        <v>0.74098564232264</v>
+        <v>0.6373350846626</v>
       </c>
       <c r="K8" t="n">
-        <v>0.833165261494275</v>
+        <v>0.711826342626525</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.706783771802235</v>
+        <v>0.688764013081698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.723165045982685</v>
+        <v>0.66689173767304</v>
       </c>
       <c r="D9" t="n">
-        <v>0.775200652533349</v>
+        <v>0.794526249748286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.485887096774194</v>
+        <v>0.554865424430642</v>
       </c>
       <c r="F9" t="n">
-        <v>0.671476533000662</v>
+        <v>0.686486959663551</v>
       </c>
       <c r="G9" t="n">
-        <v>0.860748896198369</v>
+        <v>0.874914157819803</v>
       </c>
       <c r="H9" t="n">
-        <v>0.722906485354665</v>
+        <v>0.789029899448638</v>
       </c>
       <c r="I9" t="n">
-        <v>0.544278234972607</v>
+        <v>0.593066353369139</v>
       </c>
       <c r="J9" t="n">
-        <v>0.627282147303349</v>
+        <v>0.607498867357196</v>
       </c>
       <c r="K9" t="n">
-        <v>0.738032995496398</v>
+        <v>0.811553326811156</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.861975492002455</v>
+        <v>0.67575411231335</v>
       </c>
       <c r="C10" t="n">
-        <v>0.740907565751253</v>
+        <v>0.515747396224121</v>
       </c>
       <c r="D10" t="n">
-        <v>0.877257086350281</v>
+        <v>0.639457912781268</v>
       </c>
       <c r="E10" t="n">
-        <v>0.611111111111111</v>
+        <v>0.510288065843621</v>
       </c>
       <c r="F10" t="n">
-        <v>0.68455705435355</v>
+        <v>0.534805831048871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.832506814399498</v>
+        <v>0.672936020193193</v>
       </c>
       <c r="H10" t="n">
-        <v>0.741253666495179</v>
+        <v>0.567909394732401</v>
       </c>
       <c r="I10" t="n">
-        <v>0.731465104530289</v>
+        <v>0.451346344878566</v>
       </c>
       <c r="J10" t="n">
-        <v>0.783512580099027</v>
+        <v>0.624936732284106</v>
       </c>
       <c r="K10" t="n">
-        <v>0.827529333133845</v>
+        <v>0.599736495613847</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.685259284535928</v>
+        <v>0.670098728645473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.524835815174472</v>
+        <v>0.677202174403351</v>
       </c>
       <c r="D11" t="n">
-        <v>0.63952849064822</v>
+        <v>0.84072602924146</v>
       </c>
       <c r="E11" t="n">
-        <v>0.510288065843621</v>
+        <v>0.764302059496567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.515905868166361</v>
+        <v>0.726998658558585</v>
       </c>
       <c r="G11" t="n">
-        <v>0.676722553222759</v>
+        <v>0.885108518034509</v>
       </c>
       <c r="H11" t="n">
-        <v>0.57666600884402</v>
+        <v>0.71488140543141</v>
       </c>
       <c r="I11" t="n">
-        <v>0.440481337271772</v>
+        <v>0.675609346162432</v>
       </c>
       <c r="J11" t="n">
-        <v>0.621402856155025</v>
+        <v>0.644008010728301</v>
       </c>
       <c r="K11" t="n">
-        <v>0.647518254073482</v>
+        <v>0.649848689129047</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -59,27 +59,27 @@
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">International levy on carbon emissions from
 aviation, returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.871495939636358</v>
+        <v>0.838172517919072</v>
       </c>
       <c r="C2" t="n">
-        <v>0.82182715574949</v>
+        <v>0.812182390754169</v>
       </c>
       <c r="D2" t="n">
-        <v>0.891705525159744</v>
+        <v>0.896672662508597</v>
       </c>
       <c r="E2" t="n">
-        <v>0.848739495798319</v>
+        <v>0.756363636363636</v>
       </c>
       <c r="F2" t="n">
-        <v>0.810169384469678</v>
+        <v>0.750247690644462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.853985297618905</v>
+        <v>0.867953993897697</v>
       </c>
       <c r="H2" t="n">
-        <v>0.814359836289678</v>
+        <v>0.812622496110387</v>
       </c>
       <c r="I2" t="n">
-        <v>0.800702579066555</v>
+        <v>0.856524146880906</v>
       </c>
       <c r="J2" t="n">
-        <v>0.854100765452465</v>
+        <v>0.857465644447938</v>
       </c>
       <c r="K2" t="n">
-        <v>0.83748051526923</v>
+        <v>0.856667564893282</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.844810664228624</v>
+        <v>0.824086631601532</v>
       </c>
       <c r="C3" t="n">
-        <v>0.726147552657877</v>
+        <v>0.708297877067381</v>
       </c>
       <c r="D3" t="n">
-        <v>0.876944666755124</v>
+        <v>0.892809033691595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.611111111111111</v>
+        <v>0.583783783783784</v>
       </c>
       <c r="F3" t="n">
-        <v>0.698169878063855</v>
+        <v>0.638126015663342</v>
       </c>
       <c r="G3" t="n">
-        <v>0.827832595175656</v>
+        <v>0.841494276133499</v>
       </c>
       <c r="H3" t="n">
-        <v>0.744200598817871</v>
+        <v>0.698555826093099</v>
       </c>
       <c r="I3" t="n">
-        <v>0.77860730059972</v>
+        <v>0.755717264326554</v>
       </c>
       <c r="J3" t="n">
-        <v>0.788891506704231</v>
+        <v>0.794225388669587</v>
       </c>
       <c r="K3" t="n">
-        <v>0.794309412277247</v>
+        <v>0.854907628708542</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.796908728551825</v>
+        <v>0.779190269565137</v>
       </c>
       <c r="C4" t="n">
-        <v>0.83828185549631</v>
+        <v>0.891135268199698</v>
       </c>
       <c r="D4" t="n">
-        <v>0.923236605957235</v>
+        <v>0.950873442872552</v>
       </c>
       <c r="E4" t="n">
-        <v>0.719367588932806</v>
+        <v>0.59915611814346</v>
       </c>
       <c r="F4" t="n">
-        <v>0.786006828908474</v>
+        <v>0.796913184707842</v>
       </c>
       <c r="G4" t="n">
-        <v>0.87116664158716</v>
+        <v>0.876707784692941</v>
       </c>
       <c r="H4" t="n">
-        <v>0.83551452772497</v>
+        <v>0.839398022607157</v>
       </c>
       <c r="I4" t="n">
-        <v>0.763949004011529</v>
+        <v>0.776962464382159</v>
       </c>
       <c r="J4" t="n">
-        <v>0.786696565056701</v>
+        <v>0.796041473101139</v>
       </c>
       <c r="K4" t="n">
-        <v>0.792727954224717</v>
+        <v>0.985552534806044</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.756715883187528</v>
+        <v>0.723853917278106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.752290859118992</v>
+        <v>0.789926103584811</v>
       </c>
       <c r="D5" t="n">
-        <v>0.804307931693326</v>
+        <v>0.903144947068534</v>
       </c>
       <c r="E5" t="n">
-        <v>0.662768031189084</v>
+        <v>0.686635944700461</v>
       </c>
       <c r="F5" t="n">
-        <v>0.664871461592328</v>
+        <v>0.642669807932528</v>
       </c>
       <c r="G5" t="n">
-        <v>0.748195523864934</v>
+        <v>0.888448095466933</v>
       </c>
       <c r="H5" t="n">
-        <v>0.657503034741323</v>
+        <v>0.774419452216466</v>
       </c>
       <c r="I5" t="n">
-        <v>0.526253085296637</v>
+        <v>0.845123413100836</v>
       </c>
       <c r="J5" t="n">
-        <v>0.778332511202729</v>
+        <v>0.812773133006073</v>
       </c>
       <c r="K5" t="n">
-        <v>0.799932730970653</v>
+        <v>0.900976072666879</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.753618552474951</v>
+        <v>0.711288823968918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777433285347556</v>
+        <v>0.803314057586209</v>
       </c>
       <c r="D6" t="n">
-        <v>0.830438991590445</v>
+        <v>0.849388959689724</v>
       </c>
       <c r="E6" t="n">
-        <v>0.757575757575758</v>
+        <v>0.706214689265537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.734130511127814</v>
+        <v>0.670745186958799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.895132707337567</v>
+        <v>0.875304397671542</v>
       </c>
       <c r="H6" t="n">
-        <v>0.751881169111925</v>
+        <v>0.814641876212352</v>
       </c>
       <c r="I6" t="n">
-        <v>0.726920731652911</v>
+        <v>0.696768395425473</v>
       </c>
       <c r="J6" t="n">
-        <v>0.746835477096753</v>
+        <v>0.804299475242195</v>
       </c>
       <c r="K6" t="n">
-        <v>0.769090905146804</v>
+        <v>0.802692010488043</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.729266795876485</v>
+        <v>0.673799177092943</v>
       </c>
       <c r="C7" t="n">
-        <v>0.787053397379168</v>
+        <v>0.782432111558757</v>
       </c>
       <c r="D7" t="n">
-        <v>0.868080473510684</v>
+        <v>0.766820514716189</v>
       </c>
       <c r="E7" t="n">
-        <v>0.676092544987147</v>
+        <v>0.568181818181818</v>
       </c>
       <c r="F7" t="n">
-        <v>0.713684091496764</v>
+        <v>0.582666849520209</v>
       </c>
       <c r="G7" t="n">
-        <v>0.848993050545021</v>
+        <v>0.710296497895098</v>
       </c>
       <c r="H7" t="n">
-        <v>0.801280626370841</v>
+        <v>0.6098492279234</v>
       </c>
       <c r="I7" t="n">
-        <v>0.761156138380908</v>
+        <v>0.547853178975792</v>
       </c>
       <c r="J7" t="n">
-        <v>0.772256444549169</v>
+        <v>0.726834522639412</v>
       </c>
       <c r="K7" t="n">
-        <v>0.791739725135049</v>
+        <v>0.815379403342219</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.702550240205576</v>
+        <v>0.666157961155403</v>
       </c>
       <c r="C8" t="n">
-        <v>0.714303774974921</v>
+        <v>0.705382743114446</v>
       </c>
       <c r="D8" t="n">
-        <v>0.775240566349454</v>
+        <v>0.827877679162008</v>
       </c>
       <c r="E8" t="n">
-        <v>0.485887096774194</v>
+        <v>0.519650655021834</v>
       </c>
       <c r="F8" t="n">
-        <v>0.673186680847185</v>
+        <v>0.587235486100892</v>
       </c>
       <c r="G8" t="n">
-        <v>0.855557125893547</v>
+        <v>0.874747941198968</v>
       </c>
       <c r="H8" t="n">
-        <v>0.726003062767208</v>
+        <v>0.730399750767294</v>
       </c>
       <c r="I8" t="n">
-        <v>0.59567500924059</v>
+        <v>0.701129128626683</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6373350846626</v>
+        <v>0.661410593932978</v>
       </c>
       <c r="K8" t="n">
-        <v>0.711826342626525</v>
+        <v>0.758626848291446</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.688764013081698</v>
+        <v>0.658471667859565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.66689173767304</v>
+        <v>0.515081455519286</v>
       </c>
       <c r="D9" t="n">
-        <v>0.794526249748286</v>
+        <v>0.707490945376369</v>
       </c>
       <c r="E9" t="n">
-        <v>0.554865424430642</v>
+        <v>0.507042253521127</v>
       </c>
       <c r="F9" t="n">
-        <v>0.686486959663551</v>
+        <v>0.516241779793676</v>
       </c>
       <c r="G9" t="n">
-        <v>0.874914157819803</v>
+        <v>0.679456196646837</v>
       </c>
       <c r="H9" t="n">
-        <v>0.789029899448638</v>
+        <v>0.548824194728843</v>
       </c>
       <c r="I9" t="n">
-        <v>0.593066353369139</v>
+        <v>0.566610749911949</v>
       </c>
       <c r="J9" t="n">
-        <v>0.607498867357196</v>
+        <v>0.677003842026835</v>
       </c>
       <c r="K9" t="n">
-        <v>0.811553326811156</v>
+        <v>0.637258996453702</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.67575411231335</v>
+        <v>0.627262208079046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.515747396224121</v>
+        <v>0.707102749269418</v>
       </c>
       <c r="D10" t="n">
-        <v>0.639457912781268</v>
+        <v>0.863510677275865</v>
       </c>
       <c r="E10" t="n">
-        <v>0.510288065843621</v>
+        <v>0.538759689922481</v>
       </c>
       <c r="F10" t="n">
-        <v>0.534805831048871</v>
+        <v>0.647310947381463</v>
       </c>
       <c r="G10" t="n">
-        <v>0.672936020193193</v>
+        <v>0.88675636501941</v>
       </c>
       <c r="H10" t="n">
-        <v>0.567909394732401</v>
+        <v>0.78715419800166</v>
       </c>
       <c r="I10" t="n">
-        <v>0.451346344878566</v>
+        <v>0.711266176213901</v>
       </c>
       <c r="J10" t="n">
-        <v>0.624936732284106</v>
+        <v>0.691338292231026</v>
       </c>
       <c r="K10" t="n">
-        <v>0.599736495613847</v>
+        <v>0.858459540228238</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.670098728645473</v>
+        <v>0.622194405044137</v>
       </c>
       <c r="C11" t="n">
-        <v>0.677202174403351</v>
+        <v>0.779883552002982</v>
       </c>
       <c r="D11" t="n">
-        <v>0.84072602924146</v>
+        <v>0.861781173840591</v>
       </c>
       <c r="E11" t="n">
-        <v>0.764302059496567</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.726998658558585</v>
+        <v>0.83915176789113</v>
       </c>
       <c r="G11" t="n">
-        <v>0.885108518034509</v>
+        <v>0.888608086760769</v>
       </c>
       <c r="H11" t="n">
-        <v>0.71488140543141</v>
+        <v>0.735312245551353</v>
       </c>
       <c r="I11" t="n">
-        <v>0.675609346162432</v>
+        <v>0.61782520175083</v>
       </c>
       <c r="J11" t="n">
-        <v>0.644008010728301</v>
+        <v>0.662550102297741</v>
       </c>
       <c r="K11" t="n">
-        <v>0.649848689129047</v>
+        <v>0.805628050759034</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -63,27 +63,27 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
   </si>
   <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">International levy on carbon emissions from
 aviation, returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
   </si>
 </sst>
 </file>
@@ -455,34 +455,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.838172517919072</v>
+        <v>0.849524228642708</v>
       </c>
       <c r="C2" t="n">
-        <v>0.812182390754169</v>
+        <v>0.829566818092151</v>
       </c>
       <c r="D2" t="n">
-        <v>0.896672662508597</v>
+        <v>0.918078744830325</v>
       </c>
       <c r="E2" t="n">
-        <v>0.756363636363636</v>
+        <v>0.803736827880186</v>
       </c>
       <c r="F2" t="n">
-        <v>0.750247690644462</v>
+        <v>0.797329284357665</v>
       </c>
       <c r="G2" t="n">
-        <v>0.867953993897697</v>
+        <v>0.844248535500306</v>
       </c>
       <c r="H2" t="n">
-        <v>0.812622496110387</v>
+        <v>0.836870768043078</v>
       </c>
       <c r="I2" t="n">
-        <v>0.856524146880906</v>
+        <v>0.782255612935206</v>
       </c>
       <c r="J2" t="n">
-        <v>0.857465644447938</v>
+        <v>0.843885729353385</v>
       </c>
       <c r="K2" t="n">
-        <v>0.856667564893282</v>
+        <v>0.773611654973943</v>
       </c>
     </row>
     <row r="3">
@@ -490,34 +490,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.824086631601532</v>
+        <v>0.809305119209817</v>
       </c>
       <c r="C3" t="n">
-        <v>0.708297877067381</v>
+        <v>0.672453087369044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.892809033691595</v>
+        <v>0.819819992849342</v>
       </c>
       <c r="E3" t="n">
-        <v>0.583783783783784</v>
+        <v>0.620052827188747</v>
       </c>
       <c r="F3" t="n">
-        <v>0.638126015663342</v>
+        <v>0.616871787470615</v>
       </c>
       <c r="G3" t="n">
-        <v>0.841494276133499</v>
+        <v>0.814365061380583</v>
       </c>
       <c r="H3" t="n">
-        <v>0.698555826093099</v>
+        <v>0.743774799948303</v>
       </c>
       <c r="I3" t="n">
-        <v>0.755717264326554</v>
+        <v>0.674839484901315</v>
       </c>
       <c r="J3" t="n">
-        <v>0.794225388669587</v>
+        <v>0.796454010474963</v>
       </c>
       <c r="K3" t="n">
-        <v>0.854907628708542</v>
+        <v>0.664695756838415</v>
       </c>
     </row>
     <row r="4">
@@ -525,34 +525,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.779190269565137</v>
+        <v>0.797585487178411</v>
       </c>
       <c r="C4" t="n">
-        <v>0.891135268199698</v>
+        <v>0.843881169447817</v>
       </c>
       <c r="D4" t="n">
-        <v>0.950873442872552</v>
+        <v>0.953808632493846</v>
       </c>
       <c r="E4" t="n">
-        <v>0.59915611814346</v>
+        <v>0.789552532501123</v>
       </c>
       <c r="F4" t="n">
-        <v>0.796913184707842</v>
+        <v>0.764272926358141</v>
       </c>
       <c r="G4" t="n">
-        <v>0.876707784692941</v>
+        <v>0.846837485386613</v>
       </c>
       <c r="H4" t="n">
-        <v>0.839398022607157</v>
+        <v>0.866321367715363</v>
       </c>
       <c r="I4" t="n">
-        <v>0.776962464382159</v>
+        <v>0.779176189100664</v>
       </c>
       <c r="J4" t="n">
-        <v>0.796041473101139</v>
+        <v>0.809051774090709</v>
       </c>
       <c r="K4" t="n">
-        <v>0.985552534806044</v>
+        <v>0.759496790468947</v>
       </c>
     </row>
     <row r="5">
@@ -560,34 +560,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.723853917278106</v>
+        <v>0.728175701129924</v>
       </c>
       <c r="C5" t="n">
-        <v>0.789926103584811</v>
+        <v>0.806095469107163</v>
       </c>
       <c r="D5" t="n">
-        <v>0.903144947068534</v>
+        <v>0.862993933111717</v>
       </c>
       <c r="E5" t="n">
-        <v>0.686635944700461</v>
+        <v>0.742901600161688</v>
       </c>
       <c r="F5" t="n">
-        <v>0.642669807932528</v>
+        <v>0.71282856500777</v>
       </c>
       <c r="G5" t="n">
-        <v>0.888448095466933</v>
+        <v>0.868768723700701</v>
       </c>
       <c r="H5" t="n">
-        <v>0.774419452216466</v>
+        <v>0.831023558182081</v>
       </c>
       <c r="I5" t="n">
-        <v>0.845123413100836</v>
+        <v>0.800649626907843</v>
       </c>
       <c r="J5" t="n">
-        <v>0.812773133006073</v>
+        <v>0.764039387257495</v>
       </c>
       <c r="K5" t="n">
-        <v>0.900976072666879</v>
+        <v>0.701060995981823</v>
       </c>
     </row>
     <row r="6">
@@ -595,34 +595,34 @@
         <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.711288823968918</v>
+        <v>0.689550355958915</v>
       </c>
       <c r="C6" t="n">
-        <v>0.803314057586209</v>
+        <v>0.751808715314445</v>
       </c>
       <c r="D6" t="n">
-        <v>0.849388959689724</v>
+        <v>0.777060244889749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.706214689265537</v>
+        <v>0.732390194772132</v>
       </c>
       <c r="F6" t="n">
-        <v>0.670745186958799</v>
+        <v>0.644419758016515</v>
       </c>
       <c r="G6" t="n">
-        <v>0.875304397671542</v>
+        <v>0.678388934713019</v>
       </c>
       <c r="H6" t="n">
-        <v>0.814641876212352</v>
+        <v>0.705628773396656</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696768395425473</v>
+        <v>0.512287939811139</v>
       </c>
       <c r="J6" t="n">
-        <v>0.804299475242195</v>
+        <v>0.698116957858209</v>
       </c>
       <c r="K6" t="n">
-        <v>0.802692010488043</v>
+        <v>0.64679063383214</v>
       </c>
     </row>
     <row r="7">
@@ -630,34 +630,34 @@
         <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.673799177092943</v>
+        <v>0.68032834021391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.782432111558757</v>
+        <v>0.77680668012172</v>
       </c>
       <c r="D7" t="n">
-        <v>0.766820514716189</v>
+        <v>0.860012787607911</v>
       </c>
       <c r="E7" t="n">
-        <v>0.568181818181818</v>
+        <v>0.68212224520898</v>
       </c>
       <c r="F7" t="n">
-        <v>0.582666849520209</v>
+        <v>0.706822044263746</v>
       </c>
       <c r="G7" t="n">
-        <v>0.710296497895098</v>
+        <v>0.840207280846027</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6098492279234</v>
+        <v>0.802334576956636</v>
       </c>
       <c r="I7" t="n">
-        <v>0.547853178975792</v>
+        <v>0.691068751072573</v>
       </c>
       <c r="J7" t="n">
-        <v>0.726834522639412</v>
+        <v>0.749755997606435</v>
       </c>
       <c r="K7" t="n">
-        <v>0.815379403342219</v>
+        <v>0.668058009184913</v>
       </c>
     </row>
     <row r="8">
@@ -665,34 +665,34 @@
         <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.666157961155403</v>
+        <v>0.663461047790838</v>
       </c>
       <c r="C8" t="n">
-        <v>0.705382743114446</v>
+        <v>0.731679472259958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.827877679162008</v>
+        <v>0.818665329044766</v>
       </c>
       <c r="E8" t="n">
-        <v>0.519650655021834</v>
+        <v>0.635251102846479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.587235486100892</v>
+        <v>0.650794755965075</v>
       </c>
       <c r="G8" t="n">
-        <v>0.874747941198968</v>
+        <v>0.853947242553583</v>
       </c>
       <c r="H8" t="n">
-        <v>0.730399750767294</v>
+        <v>0.818344992559981</v>
       </c>
       <c r="I8" t="n">
-        <v>0.701129128626683</v>
+        <v>0.679285142859833</v>
       </c>
       <c r="J8" t="n">
-        <v>0.661410593932978</v>
+        <v>0.68177060195091</v>
       </c>
       <c r="K8" t="n">
-        <v>0.758626848291446</v>
+        <v>0.685348381567535</v>
       </c>
     </row>
     <row r="9">
@@ -700,34 +700,34 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.658471667859565</v>
+        <v>0.661483050297915</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515081455519286</v>
+        <v>0.743028448466481</v>
       </c>
       <c r="D9" t="n">
-        <v>0.707490945376369</v>
+        <v>0.810539867459353</v>
       </c>
       <c r="E9" t="n">
-        <v>0.507042253521127</v>
+        <v>0.598882954690405</v>
       </c>
       <c r="F9" t="n">
-        <v>0.516241779793676</v>
+        <v>0.660232585164642</v>
       </c>
       <c r="G9" t="n">
-        <v>0.679456196646837</v>
+        <v>0.835730905742257</v>
       </c>
       <c r="H9" t="n">
-        <v>0.548824194728843</v>
+        <v>0.801696555161811</v>
       </c>
       <c r="I9" t="n">
-        <v>0.566610749911949</v>
+        <v>0.646351856970229</v>
       </c>
       <c r="J9" t="n">
-        <v>0.677003842026835</v>
+        <v>0.672842410539484</v>
       </c>
       <c r="K9" t="n">
-        <v>0.637258996453702</v>
+        <v>0.635733481598872</v>
       </c>
     </row>
     <row r="10">
@@ -735,34 +735,34 @@
         <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0.627262208079046</v>
+        <v>0.595838554477252</v>
       </c>
       <c r="C10" t="n">
-        <v>0.707102749269418</v>
+        <v>0.637478654033652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.863510677275865</v>
+        <v>0.818629582401581</v>
       </c>
       <c r="E10" t="n">
-        <v>0.538759689922481</v>
+        <v>0.682549555252543</v>
       </c>
       <c r="F10" t="n">
-        <v>0.647310947381463</v>
+        <v>0.784444434675335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.88675636501941</v>
+        <v>0.868265172653042</v>
       </c>
       <c r="H10" t="n">
-        <v>0.78715419800166</v>
+        <v>0.774092985233538</v>
       </c>
       <c r="I10" t="n">
-        <v>0.711266176213901</v>
+        <v>0.564436520474966</v>
       </c>
       <c r="J10" t="n">
-        <v>0.691338292231026</v>
+        <v>0.700221051101634</v>
       </c>
       <c r="K10" t="n">
-        <v>0.858459540228238</v>
+        <v>0.710164700234377</v>
       </c>
     </row>
     <row r="11">
@@ -770,34 +770,34 @@
         <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0.622194405044137</v>
+        <v>0.567470296206158</v>
       </c>
       <c r="C11" t="n">
-        <v>0.779883552002982</v>
+        <v>0.569457999514844</v>
       </c>
       <c r="D11" t="n">
-        <v>0.861781173840591</v>
+        <v>0.562058033827483</v>
       </c>
       <c r="E11" t="n">
-        <v>0.833333333333333</v>
+        <v>0.489555307600868</v>
       </c>
       <c r="F11" t="n">
-        <v>0.83915176789113</v>
+        <v>0.467915904545392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.888608086760769</v>
+        <v>0.655976121075812</v>
       </c>
       <c r="H11" t="n">
-        <v>0.735312245551353</v>
+        <v>0.546563143391366</v>
       </c>
       <c r="I11" t="n">
-        <v>0.61782520175083</v>
+        <v>0.511875941110646</v>
       </c>
       <c r="J11" t="n">
-        <v>0.662550102297741</v>
+        <v>0.576351080118094</v>
       </c>
       <c r="K11" t="n">
-        <v>0.805628050759034</v>
+        <v>0.552502188720799</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -26,64 +32,64 @@
     <t xml:space="preserve">Italy</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
   </si>
   <si>
     <t xml:space="preserve">Minimum tax of 2% on billionaires'
 wealth, in voluntary countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -449,355 +455,421 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.849524228642708</v>
+        <v>0.81335348799276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.829566818092151</v>
+        <v>0.842212027367167</v>
       </c>
       <c r="D2" t="n">
-        <v>0.918078744830325</v>
+        <v>0.801804489363947</v>
       </c>
       <c r="E2" t="n">
-        <v>0.803736827880186</v>
+        <v>0.872519727759229</v>
       </c>
       <c r="F2" t="n">
-        <v>0.797329284357665</v>
+        <v>0.934206651408479</v>
       </c>
       <c r="G2" t="n">
-        <v>0.844248535500306</v>
+        <v>0.757875442140673</v>
       </c>
       <c r="H2" t="n">
-        <v>0.836870768043078</v>
+        <v>0.865605951341982</v>
       </c>
       <c r="I2" t="n">
-        <v>0.782255612935206</v>
+        <v>0.792254317515488</v>
       </c>
       <c r="J2" t="n">
-        <v>0.843885729353385</v>
+        <v>0.774950119985054</v>
       </c>
       <c r="K2" t="n">
-        <v>0.773611654973943</v>
+        <v>0.792129469544695</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.82408629953247</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.782696242726884</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.809305119209817</v>
+        <v>0.810917235285064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.672453087369044</v>
+        <v>0.844421208453391</v>
       </c>
       <c r="D3" t="n">
-        <v>0.819819992849342</v>
+        <v>0.85248004691808</v>
       </c>
       <c r="E3" t="n">
-        <v>0.620052827188747</v>
+        <v>0.825663111118078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.616871787470615</v>
+        <v>0.904922681843791</v>
       </c>
       <c r="G3" t="n">
-        <v>0.814365061380583</v>
+        <v>0.807461670173784</v>
       </c>
       <c r="H3" t="n">
-        <v>0.743774799948303</v>
+        <v>0.831953116141523</v>
       </c>
       <c r="I3" t="n">
-        <v>0.674839484901315</v>
+        <v>0.848019854293047</v>
       </c>
       <c r="J3" t="n">
-        <v>0.796454010474963</v>
+        <v>0.761894635786861</v>
       </c>
       <c r="K3" t="n">
-        <v>0.664695756838415</v>
+        <v>0.805390844912397</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.83288141541291</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.766493108109583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.797585487178411</v>
+        <v>0.752871468786329</v>
       </c>
       <c r="C4" t="n">
-        <v>0.843881169447817</v>
+        <v>0.787606547514955</v>
       </c>
       <c r="D4" t="n">
-        <v>0.953808632493846</v>
+        <v>0.715435364540828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.789552532501123</v>
+        <v>0.812466326047918</v>
       </c>
       <c r="F4" t="n">
-        <v>0.764272926358141</v>
+        <v>0.884041867044139</v>
       </c>
       <c r="G4" t="n">
-        <v>0.846837485386613</v>
+        <v>0.693525209252325</v>
       </c>
       <c r="H4" t="n">
-        <v>0.866321367715363</v>
+        <v>0.834091145357255</v>
       </c>
       <c r="I4" t="n">
-        <v>0.779176189100664</v>
+        <v>0.755895596419767</v>
       </c>
       <c r="J4" t="n">
-        <v>0.809051774090709</v>
+        <v>0.781062328343944</v>
       </c>
       <c r="K4" t="n">
-        <v>0.759496790468947</v>
+        <v>0.74749413629257</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.866774750612964</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.699573899752676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.728175701129924</v>
+        <v>0.727686295503623</v>
       </c>
       <c r="C5" t="n">
-        <v>0.806095469107163</v>
+        <v>0.760569437952066</v>
       </c>
       <c r="D5" t="n">
-        <v>0.862993933111717</v>
+        <v>0.682376605693864</v>
       </c>
       <c r="E5" t="n">
-        <v>0.742901600161688</v>
+        <v>0.812744590175703</v>
       </c>
       <c r="F5" t="n">
-        <v>0.71282856500777</v>
+        <v>0.838885888244661</v>
       </c>
       <c r="G5" t="n">
-        <v>0.868768723700701</v>
+        <v>0.713034994850209</v>
       </c>
       <c r="H5" t="n">
-        <v>0.831023558182081</v>
+        <v>0.793895825387917</v>
       </c>
       <c r="I5" t="n">
-        <v>0.800649626907843</v>
+        <v>0.712275122897007</v>
       </c>
       <c r="J5" t="n">
-        <v>0.764039387257495</v>
+        <v>0.677557337522476</v>
       </c>
       <c r="K5" t="n">
-        <v>0.701060995981823</v>
+        <v>0.680983490374046</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.839548336524609</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.684520228865677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.689550355958915</v>
+        <v>0.716121549253969</v>
       </c>
       <c r="C6" t="n">
-        <v>0.751808715314445</v>
+        <v>0.757615757224197</v>
       </c>
       <c r="D6" t="n">
-        <v>0.777060244889749</v>
+        <v>0.791906084017783</v>
       </c>
       <c r="E6" t="n">
-        <v>0.732390194772132</v>
+        <v>0.720065000738935</v>
       </c>
       <c r="F6" t="n">
-        <v>0.644419758016515</v>
+        <v>0.849973900722231</v>
       </c>
       <c r="G6" t="n">
-        <v>0.678388934713019</v>
+        <v>0.605152497843091</v>
       </c>
       <c r="H6" t="n">
-        <v>0.705628773396656</v>
+        <v>0.747305251062425</v>
       </c>
       <c r="I6" t="n">
-        <v>0.512287939811139</v>
+        <v>0.785573378546592</v>
       </c>
       <c r="J6" t="n">
-        <v>0.698116957858209</v>
+        <v>0.673137894027131</v>
       </c>
       <c r="K6" t="n">
-        <v>0.64679063383214</v>
+        <v>0.621963979023541</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.815332068711652</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.680949867444151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.68032834021391</v>
+        <v>0.70733016893966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.77680668012172</v>
+        <v>0.695233704874208</v>
       </c>
       <c r="D7" t="n">
-        <v>0.860012787607911</v>
+        <v>0.579637629681727</v>
       </c>
       <c r="E7" t="n">
-        <v>0.68212224520898</v>
+        <v>0.645813034825358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.706822044263746</v>
+        <v>0.822817094037681</v>
       </c>
       <c r="G7" t="n">
-        <v>0.840207280846027</v>
+        <v>0.779610326144795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.802334576956636</v>
+        <v>0.72889066312532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.691068751072573</v>
+        <v>0.690013606234853</v>
       </c>
       <c r="J7" t="n">
-        <v>0.749755997606435</v>
+        <v>0.593961221526317</v>
       </c>
       <c r="K7" t="n">
-        <v>0.668058009184913</v>
+        <v>0.684795390867237</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.8566586370777</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.71362135340927</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.663461047790838</v>
+        <v>0.703334664145425</v>
       </c>
       <c r="C8" t="n">
-        <v>0.731679472259958</v>
+        <v>0.733945246718659</v>
       </c>
       <c r="D8" t="n">
-        <v>0.818665329044766</v>
+        <v>0.678638336312832</v>
       </c>
       <c r="E8" t="n">
-        <v>0.635251102846479</v>
+        <v>0.768604132129904</v>
       </c>
       <c r="F8" t="n">
-        <v>0.650794755965075</v>
+        <v>0.803977436100474</v>
       </c>
       <c r="G8" t="n">
-        <v>0.853947242553583</v>
+        <v>0.638380661475797</v>
       </c>
       <c r="H8" t="n">
-        <v>0.818344992559981</v>
+        <v>0.791583925417974</v>
       </c>
       <c r="I8" t="n">
-        <v>0.679285142859833</v>
+        <v>0.702532641012507</v>
       </c>
       <c r="J8" t="n">
-        <v>0.68177060195091</v>
+        <v>0.628014088298242</v>
       </c>
       <c r="K8" t="n">
-        <v>0.685348381567535</v>
+        <v>0.634907941112113</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.85230892576878</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.668973021320248</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.661483050297915</v>
+        <v>0.678518713036529</v>
       </c>
       <c r="C9" t="n">
-        <v>0.743028448466481</v>
+        <v>0.714139167850459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.810539867459353</v>
+        <v>0.639155512173755</v>
       </c>
       <c r="E9" t="n">
-        <v>0.598882954690405</v>
+        <v>0.748307718166954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.660232585164642</v>
+        <v>0.77011856554549</v>
       </c>
       <c r="G9" t="n">
-        <v>0.835730905742257</v>
+        <v>0.648626053472651</v>
       </c>
       <c r="H9" t="n">
-        <v>0.801696555161811</v>
+        <v>0.793163597212118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.646351856970229</v>
+        <v>0.678583695381148</v>
       </c>
       <c r="J9" t="n">
-        <v>0.672842410539484</v>
+        <v>0.636315908959649</v>
       </c>
       <c r="K9" t="n">
-        <v>0.635733481598872</v>
+        <v>0.601323624961334</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.836965928384147</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.642503562997095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.595838554477252</v>
+        <v>0.665399976749343</v>
       </c>
       <c r="C10" t="n">
-        <v>0.637478654033652</v>
+        <v>0.712897339162229</v>
       </c>
       <c r="D10" t="n">
-        <v>0.818629582401581</v>
+        <v>0.690503071845236</v>
       </c>
       <c r="E10" t="n">
-        <v>0.682549555252543</v>
+        <v>0.763108110315853</v>
       </c>
       <c r="F10" t="n">
-        <v>0.784444434675335</v>
+        <v>0.789345341898181</v>
       </c>
       <c r="G10" t="n">
-        <v>0.868265172653042</v>
+        <v>0.635600728541191</v>
       </c>
       <c r="H10" t="n">
-        <v>0.774092985233538</v>
+        <v>0.700568450255287</v>
       </c>
       <c r="I10" t="n">
-        <v>0.564436520474966</v>
+        <v>0.675167082191059</v>
       </c>
       <c r="J10" t="n">
-        <v>0.700221051101634</v>
+        <v>0.531731412418313</v>
       </c>
       <c r="K10" t="n">
-        <v>0.710164700234377</v>
+        <v>0.736569577222102</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.675914983331497</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.582071388728139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.567470296206158</v>
+        <v>0.525623521111062</v>
       </c>
       <c r="C11" t="n">
-        <v>0.569457999514844</v>
+        <v>0.546459576777648</v>
       </c>
       <c r="D11" t="n">
-        <v>0.562058033827483</v>
+        <v>0.560553336659626</v>
       </c>
       <c r="E11" t="n">
-        <v>0.489555307600868</v>
+        <v>0.580369272392972</v>
       </c>
       <c r="F11" t="n">
-        <v>0.467915904545392</v>
+        <v>0.556054521322171</v>
       </c>
       <c r="G11" t="n">
-        <v>0.655976121075812</v>
+        <v>0.46479456696521</v>
       </c>
       <c r="H11" t="n">
-        <v>0.546563143391366</v>
+        <v>0.519216835936779</v>
       </c>
       <c r="I11" t="n">
-        <v>0.511875941110646</v>
+        <v>0.554227055117612</v>
       </c>
       <c r="J11" t="n">
-        <v>0.576351080118094</v>
+        <v>0.540145858246218</v>
       </c>
       <c r="K11" t="n">
-        <v>0.552502188720799</v>
+        <v>0.487911005470522</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.651311481437355</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.498166210438797</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -53,39 +53,39 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum tax of 2% on billionaires'
-wealth, in voluntary countries</t>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on shipping carbon emissions,
 returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
 payments until they are more able to repay</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
 year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.81335348799276</v>
+        <v>0.804474641129839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.842212027367167</v>
+        <v>0.853900951193138</v>
       </c>
       <c r="D2" t="n">
-        <v>0.801804489363947</v>
+        <v>0.880372430252192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.872519727759229</v>
+        <v>0.835317157369691</v>
       </c>
       <c r="F2" t="n">
-        <v>0.934206651408479</v>
+        <v>0.881878328119046</v>
       </c>
       <c r="G2" t="n">
-        <v>0.757875442140673</v>
+        <v>0.812200825078819</v>
       </c>
       <c r="H2" t="n">
-        <v>0.865605951341982</v>
+        <v>0.815702092326762</v>
       </c>
       <c r="I2" t="n">
-        <v>0.792254317515488</v>
+        <v>0.881193988538922</v>
       </c>
       <c r="J2" t="n">
-        <v>0.774950119985054</v>
+        <v>0.820944366612305</v>
       </c>
       <c r="K2" t="n">
-        <v>0.792129469544695</v>
+        <v>0.812290431549786</v>
       </c>
       <c r="L2" t="n">
-        <v>0.82408629953247</v>
+        <v>0.850438943748077</v>
       </c>
       <c r="M2" t="n">
-        <v>0.782696242726884</v>
+        <v>0.741846758076764</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.810917235285064</v>
+        <v>0.788897905196024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.844421208453391</v>
+        <v>0.829320459599964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.85248004691808</v>
+        <v>0.820079000131542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.825663111118078</v>
+        <v>0.831606940661362</v>
       </c>
       <c r="F3" t="n">
-        <v>0.904922681843791</v>
+        <v>0.881832346039373</v>
       </c>
       <c r="G3" t="n">
-        <v>0.807461670173784</v>
+        <v>0.784455075988575</v>
       </c>
       <c r="H3" t="n">
-        <v>0.831953116141523</v>
+        <v>0.826852520212903</v>
       </c>
       <c r="I3" t="n">
-        <v>0.848019854293047</v>
+        <v>0.816357972808387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.761894635786861</v>
+        <v>0.751616500821947</v>
       </c>
       <c r="K3" t="n">
-        <v>0.805390844912397</v>
+        <v>0.802944673252164</v>
       </c>
       <c r="L3" t="n">
-        <v>0.83288141541291</v>
+        <v>0.863895443662452</v>
       </c>
       <c r="M3" t="n">
-        <v>0.766493108109583</v>
+        <v>0.730966464138841</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.752871468786329</v>
+        <v>0.722789924442121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.787606547514955</v>
+        <v>0.770483131461801</v>
       </c>
       <c r="D4" t="n">
-        <v>0.715435364540828</v>
+        <v>0.740545866374231</v>
       </c>
       <c r="E4" t="n">
-        <v>0.812466326047918</v>
+        <v>0.754834639729512</v>
       </c>
       <c r="F4" t="n">
-        <v>0.884041867044139</v>
+        <v>0.820020285286714</v>
       </c>
       <c r="G4" t="n">
-        <v>0.693525209252325</v>
+        <v>0.74408376271849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.834091145357255</v>
+        <v>0.782373336077837</v>
       </c>
       <c r="I4" t="n">
-        <v>0.755895596419767</v>
+        <v>0.786436742728649</v>
       </c>
       <c r="J4" t="n">
-        <v>0.781062328343944</v>
+        <v>0.728895233453944</v>
       </c>
       <c r="K4" t="n">
-        <v>0.74749413629257</v>
+        <v>0.681670132090246</v>
       </c>
       <c r="L4" t="n">
-        <v>0.866774750612964</v>
+        <v>0.838442651168086</v>
       </c>
       <c r="M4" t="n">
-        <v>0.699573899752676</v>
+        <v>0.664574006974202</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.727686295503623</v>
+        <v>0.718340064874806</v>
       </c>
       <c r="C5" t="n">
-        <v>0.760569437952066</v>
+        <v>0.752742180914952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.682376605693864</v>
+        <v>0.720917720399416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.812744590175703</v>
+        <v>0.73479556230701</v>
       </c>
       <c r="F5" t="n">
-        <v>0.838885888244661</v>
+        <v>0.831841153785192</v>
       </c>
       <c r="G5" t="n">
-        <v>0.713034994850209</v>
+        <v>0.743435102992255</v>
       </c>
       <c r="H5" t="n">
-        <v>0.793895825387917</v>
+        <v>0.766547135840662</v>
       </c>
       <c r="I5" t="n">
-        <v>0.712275122897007</v>
+        <v>0.732402897012861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.677557337522476</v>
+        <v>0.704240147232504</v>
       </c>
       <c r="K5" t="n">
-        <v>0.680983490374046</v>
+        <v>0.728036055127548</v>
       </c>
       <c r="L5" t="n">
-        <v>0.839548336524609</v>
+        <v>0.886898837311098</v>
       </c>
       <c r="M5" t="n">
-        <v>0.684520228865677</v>
+        <v>0.654828615667304</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.716121549253969</v>
+        <v>0.689638273129289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.757615757224197</v>
+        <v>0.750377023135785</v>
       </c>
       <c r="D6" t="n">
-        <v>0.791906084017783</v>
+        <v>0.771184550768862</v>
       </c>
       <c r="E6" t="n">
-        <v>0.720065000738935</v>
+        <v>0.742191964565887</v>
       </c>
       <c r="F6" t="n">
-        <v>0.849973900722231</v>
+        <v>0.852344477241608</v>
       </c>
       <c r="G6" t="n">
-        <v>0.605152497843091</v>
+        <v>0.675917905627321</v>
       </c>
       <c r="H6" t="n">
-        <v>0.747305251062425</v>
+        <v>0.698195667889469</v>
       </c>
       <c r="I6" t="n">
-        <v>0.785573378546592</v>
+        <v>0.728057885528651</v>
       </c>
       <c r="J6" t="n">
-        <v>0.673137894027131</v>
+        <v>0.654669841848081</v>
       </c>
       <c r="K6" t="n">
-        <v>0.621963979023541</v>
+        <v>0.719928825212731</v>
       </c>
       <c r="L6" t="n">
-        <v>0.815332068711652</v>
+        <v>0.7646861396834</v>
       </c>
       <c r="M6" t="n">
-        <v>0.680949867444151</v>
+        <v>0.60948203005282</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.70733016893966</v>
+        <v>0.68192840880256</v>
       </c>
       <c r="C7" t="n">
-        <v>0.695233704874208</v>
+        <v>0.737712200141501</v>
       </c>
       <c r="D7" t="n">
-        <v>0.579637629681727</v>
+        <v>0.787787448989792</v>
       </c>
       <c r="E7" t="n">
-        <v>0.645813034825358</v>
+        <v>0.705703613315506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.822817094037681</v>
+        <v>0.765050311475713</v>
       </c>
       <c r="G7" t="n">
-        <v>0.779610326144795</v>
+        <v>0.646958447663811</v>
       </c>
       <c r="H7" t="n">
-        <v>0.72889066312532</v>
+        <v>0.743488580019099</v>
       </c>
       <c r="I7" t="n">
-        <v>0.690013606234853</v>
+        <v>0.745060660803562</v>
       </c>
       <c r="J7" t="n">
-        <v>0.593961221526317</v>
+        <v>0.758372801919753</v>
       </c>
       <c r="K7" t="n">
-        <v>0.684795390867237</v>
+        <v>0.58625646729007</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8566586370777</v>
+        <v>0.800984159923912</v>
       </c>
       <c r="M7" t="n">
-        <v>0.71362135340927</v>
+        <v>0.635410417432709</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.703334664145425</v>
+        <v>0.662196574763988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.733945246718659</v>
+        <v>0.682754628432334</v>
       </c>
       <c r="D8" t="n">
-        <v>0.678638336312832</v>
+        <v>0.669520382161228</v>
       </c>
       <c r="E8" t="n">
-        <v>0.768604132129904</v>
+        <v>0.652735230314945</v>
       </c>
       <c r="F8" t="n">
-        <v>0.803977436100474</v>
+        <v>0.760949692417067</v>
       </c>
       <c r="G8" t="n">
-        <v>0.638380661475797</v>
+        <v>0.60929220157754</v>
       </c>
       <c r="H8" t="n">
-        <v>0.791583925417974</v>
+        <v>0.788537852648825</v>
       </c>
       <c r="I8" t="n">
-        <v>0.702532641012507</v>
+        <v>0.635617424174043</v>
       </c>
       <c r="J8" t="n">
-        <v>0.628014088298242</v>
+        <v>0.630257896317043</v>
       </c>
       <c r="K8" t="n">
-        <v>0.634907941112113</v>
+        <v>0.619750844823548</v>
       </c>
       <c r="L8" t="n">
-        <v>0.85230892576878</v>
+        <v>0.861968549951387</v>
       </c>
       <c r="M8" t="n">
-        <v>0.668973021320248</v>
+        <v>0.62972073905989</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.678518713036529</v>
+        <v>0.659993740646565</v>
       </c>
       <c r="C9" t="n">
-        <v>0.714139167850459</v>
+        <v>0.694790043352679</v>
       </c>
       <c r="D9" t="n">
-        <v>0.639155512173755</v>
+        <v>0.640360967876195</v>
       </c>
       <c r="E9" t="n">
-        <v>0.748307718166954</v>
+        <v>0.58981046576802</v>
       </c>
       <c r="F9" t="n">
-        <v>0.77011856554549</v>
+        <v>0.807827361041027</v>
       </c>
       <c r="G9" t="n">
-        <v>0.648626053472651</v>
+        <v>0.804027105331113</v>
       </c>
       <c r="H9" t="n">
-        <v>0.793163597212118</v>
+        <v>0.714603849802484</v>
       </c>
       <c r="I9" t="n">
-        <v>0.678583695381148</v>
+        <v>0.707705787611527</v>
       </c>
       <c r="J9" t="n">
-        <v>0.636315908959649</v>
+        <v>0.680056338621607</v>
       </c>
       <c r="K9" t="n">
-        <v>0.601323624961334</v>
+        <v>0.688636530778758</v>
       </c>
       <c r="L9" t="n">
-        <v>0.836965928384147</v>
+        <v>0.877076418231844</v>
       </c>
       <c r="M9" t="n">
-        <v>0.642503562997095</v>
+        <v>0.591561721167339</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.665399976749343</v>
+        <v>0.6578032423066</v>
       </c>
       <c r="C10" t="n">
-        <v>0.712897339162229</v>
+        <v>0.693106858742338</v>
       </c>
       <c r="D10" t="n">
-        <v>0.690503071845236</v>
+        <v>0.674715476379029</v>
       </c>
       <c r="E10" t="n">
-        <v>0.763108110315853</v>
+        <v>0.703643542814668</v>
       </c>
       <c r="F10" t="n">
-        <v>0.789345341898181</v>
+        <v>0.757102710913664</v>
       </c>
       <c r="G10" t="n">
-        <v>0.635600728541191</v>
+        <v>0.645617164196115</v>
       </c>
       <c r="H10" t="n">
-        <v>0.700568450255287</v>
+        <v>0.729686637717838</v>
       </c>
       <c r="I10" t="n">
-        <v>0.675167082191059</v>
+        <v>0.634476836383035</v>
       </c>
       <c r="J10" t="n">
-        <v>0.531731412418313</v>
+        <v>0.698135428277543</v>
       </c>
       <c r="K10" t="n">
-        <v>0.736569577222102</v>
+        <v>0.589742273590926</v>
       </c>
       <c r="L10" t="n">
-        <v>0.675914983331497</v>
+        <v>0.850481513268078</v>
       </c>
       <c r="M10" t="n">
-        <v>0.582071388728139</v>
+        <v>0.617486785222781</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.525623521111062</v>
+        <v>0.510044659258945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.546459576777648</v>
+        <v>0.555612500500071</v>
       </c>
       <c r="D11" t="n">
-        <v>0.560553336659626</v>
+        <v>0.614766635396377</v>
       </c>
       <c r="E11" t="n">
-        <v>0.580369272392972</v>
+        <v>0.561609972785313</v>
       </c>
       <c r="F11" t="n">
-        <v>0.556054521322171</v>
+        <v>0.532169529025755</v>
       </c>
       <c r="G11" t="n">
-        <v>0.46479456696521</v>
+        <v>0.54816975486228</v>
       </c>
       <c r="H11" t="n">
-        <v>0.519216835936779</v>
+        <v>0.533913850920546</v>
       </c>
       <c r="I11" t="n">
-        <v>0.554227055117612</v>
+        <v>0.531886587740442</v>
       </c>
       <c r="J11" t="n">
-        <v>0.540145858246218</v>
+        <v>0.548902305045307</v>
       </c>
       <c r="K11" t="n">
-        <v>0.487911005470522</v>
+        <v>0.461501746158424</v>
       </c>
       <c r="L11" t="n">
-        <v>0.651311481437355</v>
+        <v>0.677853263889571</v>
       </c>
       <c r="M11" t="n">
-        <v>0.498166210438797</v>
+        <v>0.453528857895718</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -61,14 +61,14 @@
 investments in LICs, and at lower interest rates</t>
   </si>
   <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members
 (e.g. India, Brazil, AU), restrict veto use</t>
   </si>
   <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
@@ -77,11 +77,11 @@
 returned to countries based on population</t>
   </si>
   <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
 payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.804474641129839</v>
+        <v>0.817854521655229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.853900951193138</v>
+        <v>0.847994055535761</v>
       </c>
       <c r="D2" t="n">
-        <v>0.880372430252192</v>
+        <v>0.874385211351099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.835317157369691</v>
+        <v>0.836406520217668</v>
       </c>
       <c r="F2" t="n">
-        <v>0.881878328119046</v>
+        <v>0.882129333935751</v>
       </c>
       <c r="G2" t="n">
-        <v>0.812200825078819</v>
+        <v>0.811748434364634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.815702092326762</v>
+        <v>0.815235651826129</v>
       </c>
       <c r="I2" t="n">
-        <v>0.881193988538922</v>
+        <v>0.853571659292047</v>
       </c>
       <c r="J2" t="n">
-        <v>0.820944366612305</v>
+        <v>0.804564943999074</v>
       </c>
       <c r="K2" t="n">
-        <v>0.812290431549786</v>
+        <v>0.813016669484098</v>
       </c>
       <c r="L2" t="n">
-        <v>0.850438943748077</v>
+        <v>0.854892684694146</v>
       </c>
       <c r="M2" t="n">
-        <v>0.741846758076764</v>
+        <v>0.781237350038064</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.788897905196024</v>
+        <v>0.794459782917939</v>
       </c>
       <c r="C3" t="n">
-        <v>0.829320459599964</v>
+        <v>0.827285917806499</v>
       </c>
       <c r="D3" t="n">
-        <v>0.820079000131542</v>
+        <v>0.818635024804335</v>
       </c>
       <c r="E3" t="n">
-        <v>0.831606940661362</v>
+        <v>0.829474659439784</v>
       </c>
       <c r="F3" t="n">
-        <v>0.881832346039373</v>
+        <v>0.884033142942495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.784455075988575</v>
+        <v>0.773586083927806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.826852520212903</v>
+        <v>0.823819441987778</v>
       </c>
       <c r="I3" t="n">
-        <v>0.816357972808387</v>
+        <v>0.815320248736819</v>
       </c>
       <c r="J3" t="n">
-        <v>0.751616500821947</v>
+        <v>0.744755426675097</v>
       </c>
       <c r="K3" t="n">
-        <v>0.802944673252164</v>
+        <v>0.80273154353578</v>
       </c>
       <c r="L3" t="n">
-        <v>0.863895443662452</v>
+        <v>0.863310146747793</v>
       </c>
       <c r="M3" t="n">
-        <v>0.730966464138841</v>
+        <v>0.750478036532127</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.722789924442121</v>
+        <v>0.72984864127575</v>
       </c>
       <c r="C4" t="n">
-        <v>0.770483131461801</v>
+        <v>0.746208555552881</v>
       </c>
       <c r="D4" t="n">
-        <v>0.740545866374231</v>
+        <v>0.712890615575343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.754834639729512</v>
+        <v>0.739944072122573</v>
       </c>
       <c r="F4" t="n">
-        <v>0.820020285286714</v>
+        <v>0.834059353864226</v>
       </c>
       <c r="G4" t="n">
-        <v>0.74408376271849</v>
+        <v>0.735421289851351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.782373336077837</v>
+        <v>0.772641483933172</v>
       </c>
       <c r="I4" t="n">
-        <v>0.786436742728649</v>
+        <v>0.699605131631565</v>
       </c>
       <c r="J4" t="n">
-        <v>0.728895233453944</v>
+        <v>0.63774738165135</v>
       </c>
       <c r="K4" t="n">
-        <v>0.681670132090246</v>
+        <v>0.727744241937024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.838442651168086</v>
+        <v>0.886258588594653</v>
       </c>
       <c r="M4" t="n">
-        <v>0.664574006974202</v>
+        <v>0.695951738502339</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.718340064874806</v>
+        <v>0.720787509858402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.752742180914952</v>
+        <v>0.761807074755407</v>
       </c>
       <c r="D5" t="n">
-        <v>0.720917720399416</v>
+        <v>0.739646882380432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.73479556230701</v>
+        <v>0.752045561988994</v>
       </c>
       <c r="F5" t="n">
-        <v>0.831841153785192</v>
+        <v>0.804611180027491</v>
       </c>
       <c r="G5" t="n">
-        <v>0.743435102992255</v>
+        <v>0.745275297180582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.766547135840662</v>
+        <v>0.776046622116712</v>
       </c>
       <c r="I5" t="n">
-        <v>0.732402897012861</v>
+        <v>0.762581200883549</v>
       </c>
       <c r="J5" t="n">
-        <v>0.704240147232504</v>
+        <v>0.689567934611065</v>
       </c>
       <c r="K5" t="n">
-        <v>0.728036055127548</v>
+        <v>0.682262447550018</v>
       </c>
       <c r="L5" t="n">
-        <v>0.886898837311098</v>
+        <v>0.830273271151463</v>
       </c>
       <c r="M5" t="n">
-        <v>0.654828615667304</v>
+        <v>0.671350855153205</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.689638273129289</v>
+        <v>0.707038707245868</v>
       </c>
       <c r="C6" t="n">
-        <v>0.750377023135785</v>
+        <v>0.748172534992171</v>
       </c>
       <c r="D6" t="n">
-        <v>0.771184550768862</v>
+        <v>0.770616294694038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.742191964565887</v>
+        <v>0.74387979215967</v>
       </c>
       <c r="F6" t="n">
-        <v>0.852344477241608</v>
+        <v>0.851614182257474</v>
       </c>
       <c r="G6" t="n">
-        <v>0.675917905627321</v>
+        <v>0.674423320521451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.698195667889469</v>
+        <v>0.697839073578195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.728057885528651</v>
+        <v>0.716793911099075</v>
       </c>
       <c r="J6" t="n">
-        <v>0.654669841848081</v>
+        <v>0.632737058745888</v>
       </c>
       <c r="K6" t="n">
-        <v>0.719928825212731</v>
+        <v>0.721557600538781</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7646861396834</v>
+        <v>0.764076778939229</v>
       </c>
       <c r="M6" t="n">
-        <v>0.60948203005282</v>
+        <v>0.651220011645501</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.68192840880256</v>
+        <v>0.696116986185575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.737712200141501</v>
+        <v>0.733235903458378</v>
       </c>
       <c r="D7" t="n">
-        <v>0.787787448989792</v>
+        <v>0.783977570479214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.705703613315506</v>
+        <v>0.702265355897145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.765050311475713</v>
+        <v>0.773301080672595</v>
       </c>
       <c r="G7" t="n">
-        <v>0.646958447663811</v>
+        <v>0.648796973287496</v>
       </c>
       <c r="H7" t="n">
-        <v>0.743488580019099</v>
+        <v>0.749460954575951</v>
       </c>
       <c r="I7" t="n">
-        <v>0.745060660803562</v>
+        <v>0.714055140551171</v>
       </c>
       <c r="J7" t="n">
-        <v>0.758372801919753</v>
+        <v>0.732462405388919</v>
       </c>
       <c r="K7" t="n">
-        <v>0.58625646729007</v>
+        <v>0.587518631229464</v>
       </c>
       <c r="L7" t="n">
-        <v>0.800984159923912</v>
+        <v>0.802176181998814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.635410417432709</v>
+        <v>0.673980966715589</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.662196574763988</v>
+        <v>0.682523105389239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.682754628432334</v>
+        <v>0.690062884022071</v>
       </c>
       <c r="D8" t="n">
-        <v>0.669520382161228</v>
+        <v>0.634543139719425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.652735230314945</v>
+        <v>0.590154845017989</v>
       </c>
       <c r="F8" t="n">
-        <v>0.760949692417067</v>
+        <v>0.810184446822599</v>
       </c>
       <c r="G8" t="n">
-        <v>0.60929220157754</v>
+        <v>0.802364404399347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.788537852648825</v>
+        <v>0.724417601846534</v>
       </c>
       <c r="I8" t="n">
-        <v>0.635617424174043</v>
+        <v>0.680915334418408</v>
       </c>
       <c r="J8" t="n">
-        <v>0.630257896317043</v>
+        <v>0.623400983249956</v>
       </c>
       <c r="K8" t="n">
-        <v>0.619750844823548</v>
+        <v>0.688222447609661</v>
       </c>
       <c r="L8" t="n">
-        <v>0.861968549951387</v>
+        <v>0.876861893181052</v>
       </c>
       <c r="M8" t="n">
-        <v>0.62972073905989</v>
+        <v>0.654404780744749</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.659993740646565</v>
+        <v>0.667328861337353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.694790043352679</v>
+        <v>0.683272602516913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.640360967876195</v>
+        <v>0.66470018103647</v>
       </c>
       <c r="E9" t="n">
-        <v>0.58981046576802</v>
+        <v>0.656208490189383</v>
       </c>
       <c r="F9" t="n">
-        <v>0.807827361041027</v>
+        <v>0.778781670886847</v>
       </c>
       <c r="G9" t="n">
-        <v>0.804027105331113</v>
+        <v>0.610737671327812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.714603849802484</v>
+        <v>0.785739019983502</v>
       </c>
       <c r="I9" t="n">
-        <v>0.707705787611527</v>
+        <v>0.624981942119052</v>
       </c>
       <c r="J9" t="n">
-        <v>0.680056338621607</v>
+        <v>0.587750650115445</v>
       </c>
       <c r="K9" t="n">
-        <v>0.688636530778758</v>
+        <v>0.62110832770549</v>
       </c>
       <c r="L9" t="n">
-        <v>0.877076418231844</v>
+        <v>0.856494857838063</v>
       </c>
       <c r="M9" t="n">
-        <v>0.591561721167339</v>
+        <v>0.643341520168032</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6578032423066</v>
+        <v>0.656376501493464</v>
       </c>
       <c r="C10" t="n">
-        <v>0.693106858742338</v>
+        <v>0.687477848972445</v>
       </c>
       <c r="D10" t="n">
-        <v>0.674715476379029</v>
+        <v>0.671101587434301</v>
       </c>
       <c r="E10" t="n">
-        <v>0.703643542814668</v>
+        <v>0.699559702763179</v>
       </c>
       <c r="F10" t="n">
-        <v>0.757102710913664</v>
+        <v>0.760841034374675</v>
       </c>
       <c r="G10" t="n">
-        <v>0.645617164196115</v>
+        <v>0.649951807673302</v>
       </c>
       <c r="H10" t="n">
-        <v>0.729686637717838</v>
+        <v>0.72711860674174</v>
       </c>
       <c r="I10" t="n">
-        <v>0.634476836383035</v>
+        <v>0.618351256546666</v>
       </c>
       <c r="J10" t="n">
-        <v>0.698135428277543</v>
+        <v>0.605833763136988</v>
       </c>
       <c r="K10" t="n">
-        <v>0.589742273590926</v>
+        <v>0.58798628784799</v>
       </c>
       <c r="L10" t="n">
-        <v>0.850481513268078</v>
+        <v>0.851448576462916</v>
       </c>
       <c r="M10" t="n">
-        <v>0.617486785222781</v>
+        <v>0.620815538322672</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.510044659258945</v>
+        <v>0.538829340649937</v>
       </c>
       <c r="C11" t="n">
-        <v>0.555612500500071</v>
+        <v>0.555377427538712</v>
       </c>
       <c r="D11" t="n">
-        <v>0.614766635396377</v>
+        <v>0.602583635883865</v>
       </c>
       <c r="E11" t="n">
-        <v>0.561609972785313</v>
+        <v>0.562183397064124</v>
       </c>
       <c r="F11" t="n">
-        <v>0.532169529025755</v>
+        <v>0.557157059025977</v>
       </c>
       <c r="G11" t="n">
-        <v>0.54816975486228</v>
+        <v>0.545513758362752</v>
       </c>
       <c r="H11" t="n">
-        <v>0.533913850920546</v>
+        <v>0.561022607288039</v>
       </c>
       <c r="I11" t="n">
-        <v>0.531886587740442</v>
+        <v>0.511149007434203</v>
       </c>
       <c r="J11" t="n">
-        <v>0.548902305045307</v>
+        <v>0.464070433932112</v>
       </c>
       <c r="K11" t="n">
-        <v>0.461501746158424</v>
+        <v>0.461936701041611</v>
       </c>
       <c r="L11" t="n">
-        <v>0.677853263889571</v>
+        <v>0.679798483718248</v>
       </c>
       <c r="M11" t="n">
-        <v>0.453528857895718</v>
+        <v>0.528760737430746</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -73,8 +73,8 @@
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -88,8 +88,8 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -467,31 +467,31 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.817854521655229</v>
+        <v>0.804810627506936</v>
       </c>
       <c r="C2" t="n">
-        <v>0.847994055535761</v>
+        <v>0.846798441036863</v>
       </c>
       <c r="D2" t="n">
         <v>0.874385211351099</v>
       </c>
       <c r="E2" t="n">
-        <v>0.836406520217668</v>
+        <v>0.837717391509529</v>
       </c>
       <c r="F2" t="n">
-        <v>0.882129333935751</v>
+        <v>0.88721742183612</v>
       </c>
       <c r="G2" t="n">
         <v>0.811748434364634</v>
       </c>
       <c r="H2" t="n">
-        <v>0.815235651826129</v>
+        <v>0.810037809211586</v>
       </c>
       <c r="I2" t="n">
-        <v>0.853571659292047</v>
+        <v>0.842766856187493</v>
       </c>
       <c r="J2" t="n">
-        <v>0.804564943999074</v>
+        <v>0.810368786718287</v>
       </c>
       <c r="K2" t="n">
         <v>0.813016669484098</v>
@@ -500,7 +500,7 @@
         <v>0.854892684694146</v>
       </c>
       <c r="M2" t="n">
-        <v>0.781237350038064</v>
+        <v>0.750249954913725</v>
       </c>
     </row>
     <row r="3">
@@ -508,31 +508,31 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.794459782917939</v>
+        <v>0.788645827612425</v>
       </c>
       <c r="C3" t="n">
-        <v>0.827285917806499</v>
+        <v>0.826914696449115</v>
       </c>
       <c r="D3" t="n">
         <v>0.818635024804335</v>
       </c>
       <c r="E3" t="n">
-        <v>0.829474659439784</v>
+        <v>0.831385591583265</v>
       </c>
       <c r="F3" t="n">
-        <v>0.884033142942495</v>
+        <v>0.885336718020133</v>
       </c>
       <c r="G3" t="n">
         <v>0.773586083927806</v>
       </c>
       <c r="H3" t="n">
-        <v>0.823819441987778</v>
+        <v>0.80755174283964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.815320248736819</v>
+        <v>0.819349700198285</v>
       </c>
       <c r="J3" t="n">
-        <v>0.744755426675097</v>
+        <v>0.75660879898846</v>
       </c>
       <c r="K3" t="n">
         <v>0.80273154353578</v>
@@ -541,7 +541,7 @@
         <v>0.863310146747793</v>
       </c>
       <c r="M3" t="n">
-        <v>0.750478036532127</v>
+        <v>0.735015779416777</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.72984864127575</v>
+        <v>0.720436945804157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.746208555552881</v>
+        <v>0.743995388295066</v>
       </c>
       <c r="D4" t="n">
         <v>0.712890615575343</v>
       </c>
       <c r="E4" t="n">
-        <v>0.739944072122573</v>
+        <v>0.738918971294198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.834059353864226</v>
+        <v>0.833613332766292</v>
       </c>
       <c r="G4" t="n">
         <v>0.735421289851351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.772641483933172</v>
+        <v>0.765683259833572</v>
       </c>
       <c r="I4" t="n">
-        <v>0.699605131631565</v>
+        <v>0.692570045781656</v>
       </c>
       <c r="J4" t="n">
-        <v>0.63774738165135</v>
+        <v>0.641320782719161</v>
       </c>
       <c r="K4" t="n">
         <v>0.727744241937024</v>
       </c>
       <c r="L4" t="n">
-        <v>0.886258588594653</v>
+        <v>0.886258588594652</v>
       </c>
       <c r="M4" t="n">
-        <v>0.695951738502339</v>
+        <v>0.67417685695335</v>
       </c>
     </row>
     <row r="5">
@@ -590,31 +590,31 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.720787509858402</v>
+        <v>0.714249383689252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.761807074755407</v>
+        <v>0.757638373129648</v>
       </c>
       <c r="D5" t="n">
         <v>0.739646882380432</v>
       </c>
       <c r="E5" t="n">
-        <v>0.752045561988994</v>
+        <v>0.74323147008093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.804611180027491</v>
+        <v>0.811468764785741</v>
       </c>
       <c r="G5" t="n">
         <v>0.745275297180582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.776046622116712</v>
+        <v>0.759533346123266</v>
       </c>
       <c r="I5" t="n">
-        <v>0.762581200883549</v>
+        <v>0.752967704660125</v>
       </c>
       <c r="J5" t="n">
-        <v>0.689567934611065</v>
+        <v>0.69467778022864</v>
       </c>
       <c r="K5" t="n">
         <v>0.682262447550018</v>
@@ -623,7 +623,7 @@
         <v>0.830273271151463</v>
       </c>
       <c r="M5" t="n">
-        <v>0.671350855153205</v>
+        <v>0.658057278622382</v>
       </c>
     </row>
     <row r="6">
@@ -631,31 +631,31 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.707038707245868</v>
+        <v>0.705483422632113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.748172534992171</v>
+        <v>0.743612436358729</v>
       </c>
       <c r="D6" t="n">
         <v>0.770616294694038</v>
       </c>
       <c r="E6" t="n">
-        <v>0.74387979215967</v>
+        <v>0.737845751501209</v>
       </c>
       <c r="F6" t="n">
-        <v>0.851614182257474</v>
+        <v>0.850065671807866</v>
       </c>
       <c r="G6" t="n">
         <v>0.674423320521451</v>
       </c>
       <c r="H6" t="n">
-        <v>0.697839073578195</v>
+        <v>0.691179502697815</v>
       </c>
       <c r="I6" t="n">
-        <v>0.716793911099075</v>
+        <v>0.708514585932321</v>
       </c>
       <c r="J6" t="n">
-        <v>0.632737058745888</v>
+        <v>0.607632435292161</v>
       </c>
       <c r="K6" t="n">
         <v>0.721557600538781</v>
@@ -664,7 +664,7 @@
         <v>0.764076778939229</v>
       </c>
       <c r="M6" t="n">
-        <v>0.651220011645501</v>
+        <v>0.650594096923356</v>
       </c>
     </row>
     <row r="7">
@@ -672,31 +672,31 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696116986185575</v>
+        <v>0.688696792135118</v>
       </c>
       <c r="C7" t="n">
-        <v>0.733235903458378</v>
+        <v>0.735383310419964</v>
       </c>
       <c r="D7" t="n">
         <v>0.783977570479214</v>
       </c>
       <c r="E7" t="n">
-        <v>0.702265355897145</v>
+        <v>0.70730847550699</v>
       </c>
       <c r="F7" t="n">
-        <v>0.773301080672595</v>
+        <v>0.78074101783242</v>
       </c>
       <c r="G7" t="n">
         <v>0.648796973287496</v>
       </c>
       <c r="H7" t="n">
-        <v>0.749460954575951</v>
+        <v>0.745045100665198</v>
       </c>
       <c r="I7" t="n">
-        <v>0.714055140551171</v>
+        <v>0.715386767363771</v>
       </c>
       <c r="J7" t="n">
-        <v>0.732462405388919</v>
+        <v>0.734339132286901</v>
       </c>
       <c r="K7" t="n">
         <v>0.587518631229464</v>
@@ -705,7 +705,7 @@
         <v>0.802176181998814</v>
       </c>
       <c r="M7" t="n">
-        <v>0.673980966715589</v>
+        <v>0.652575522706528</v>
       </c>
     </row>
     <row r="8">
@@ -713,31 +713,31 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.682523105389239</v>
+        <v>0.682062306834173</v>
       </c>
       <c r="C8" t="n">
-        <v>0.690062884022071</v>
+        <v>0.692636756637358</v>
       </c>
       <c r="D8" t="n">
         <v>0.634543139719425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.590154845017989</v>
+        <v>0.595210644142353</v>
       </c>
       <c r="F8" t="n">
-        <v>0.810184446822599</v>
+        <v>0.811445186157046</v>
       </c>
       <c r="G8" t="n">
         <v>0.802364404399347</v>
       </c>
       <c r="H8" t="n">
-        <v>0.724417601846534</v>
+        <v>0.721335401023819</v>
       </c>
       <c r="I8" t="n">
-        <v>0.680915334418408</v>
+        <v>0.68634384424696</v>
       </c>
       <c r="J8" t="n">
-        <v>0.623400983249956</v>
+        <v>0.638256954622158</v>
       </c>
       <c r="K8" t="n">
         <v>0.688222447609661</v>
@@ -746,7 +746,7 @@
         <v>0.876861893181052</v>
       </c>
       <c r="M8" t="n">
-        <v>0.654404780744749</v>
+        <v>0.649543844976068</v>
       </c>
     </row>
     <row r="9">
@@ -754,31 +754,31 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.667328861337353</v>
+        <v>0.665424081754628</v>
       </c>
       <c r="C9" t="n">
-        <v>0.683272602516913</v>
+        <v>0.682414854048698</v>
       </c>
       <c r="D9" t="n">
         <v>0.66470018103647</v>
       </c>
       <c r="E9" t="n">
-        <v>0.656208490189383</v>
+        <v>0.656463451717921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.778781670886847</v>
+        <v>0.783278298735313</v>
       </c>
       <c r="G9" t="n">
         <v>0.610737671327812</v>
       </c>
       <c r="H9" t="n">
-        <v>0.785739019983502</v>
+        <v>0.773827956574152</v>
       </c>
       <c r="I9" t="n">
-        <v>0.624981942119052</v>
+        <v>0.619968012264582</v>
       </c>
       <c r="J9" t="n">
-        <v>0.587750650115445</v>
+        <v>0.600151660876826</v>
       </c>
       <c r="K9" t="n">
         <v>0.62110832770549</v>
@@ -787,7 +787,7 @@
         <v>0.856494857838063</v>
       </c>
       <c r="M9" t="n">
-        <v>0.643341520168032</v>
+        <v>0.639446246686369</v>
       </c>
     </row>
     <row r="10">
@@ -795,31 +795,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.656376501493464</v>
+        <v>0.641533376701362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.687477848972445</v>
+        <v>0.688456001847835</v>
       </c>
       <c r="D10" t="n">
         <v>0.671101587434301</v>
       </c>
       <c r="E10" t="n">
-        <v>0.699559702763179</v>
+        <v>0.704065913683018</v>
       </c>
       <c r="F10" t="n">
-        <v>0.760841034374675</v>
+        <v>0.755553748673124</v>
       </c>
       <c r="G10" t="n">
         <v>0.649951807673302</v>
       </c>
       <c r="H10" t="n">
-        <v>0.72711860674174</v>
+        <v>0.72848538066114</v>
       </c>
       <c r="I10" t="n">
-        <v>0.618351256546666</v>
+        <v>0.61899000110661</v>
       </c>
       <c r="J10" t="n">
-        <v>0.605833763136988</v>
+        <v>0.617355091194304</v>
       </c>
       <c r="K10" t="n">
         <v>0.58798628784799</v>
@@ -828,7 +828,7 @@
         <v>0.851448576462916</v>
       </c>
       <c r="M10" t="n">
-        <v>0.620815538322672</v>
+        <v>0.582589506190872</v>
       </c>
     </row>
     <row r="11">
@@ -836,31 +836,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.538829340649937</v>
+        <v>0.523466962540999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.555377427538712</v>
+        <v>0.555232924482739</v>
       </c>
       <c r="D11" t="n">
         <v>0.602583635883865</v>
       </c>
       <c r="E11" t="n">
-        <v>0.562183397064124</v>
+        <v>0.570500826723657</v>
       </c>
       <c r="F11" t="n">
-        <v>0.557157059025977</v>
+        <v>0.553018402283411</v>
       </c>
       <c r="G11" t="n">
-        <v>0.545513758362752</v>
+        <v>0.545513758362751</v>
       </c>
       <c r="H11" t="n">
-        <v>0.561022607288039</v>
+        <v>0.544995893813048</v>
       </c>
       <c r="I11" t="n">
-        <v>0.511149007434203</v>
+        <v>0.513696716718328</v>
       </c>
       <c r="J11" t="n">
-        <v>0.464070433932112</v>
+        <v>0.473686913593986</v>
       </c>
       <c r="K11" t="n">
         <v>0.461936701041611</v>
@@ -869,7 +869,7 @@
         <v>0.679798483718248</v>
       </c>
       <c r="M11" t="n">
-        <v>0.528760737430746</v>
+        <v>0.488919096746892</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -65,16 +65,16 @@
 vulnerable countries cope with cliamte Loss and damage</t>
   </si>
   <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">Debt relief for vulnerable countries, suspending
@@ -88,8 +88,8 @@
 year in climate finance for developing countries</t>
   </si>
   <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.804810627506936</v>
+        <v>0.812160039682174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.846798441036863</v>
+        <v>0.847463820458578</v>
       </c>
       <c r="D2" t="n">
-        <v>0.874385211351099</v>
+        <v>0.872057340517393</v>
       </c>
       <c r="E2" t="n">
-        <v>0.837717391509529</v>
+        <v>0.83325687277087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.88721742183612</v>
+        <v>0.889317950364356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.811748434364634</v>
+        <v>0.809265601938392</v>
       </c>
       <c r="H2" t="n">
-        <v>0.810037809211586</v>
+        <v>0.816694022842935</v>
       </c>
       <c r="I2" t="n">
-        <v>0.842766856187493</v>
+        <v>0.849567209791186</v>
       </c>
       <c r="J2" t="n">
-        <v>0.810368786718287</v>
+        <v>0.794985774068069</v>
       </c>
       <c r="K2" t="n">
-        <v>0.813016669484098</v>
+        <v>0.811183589454443</v>
       </c>
       <c r="L2" t="n">
-        <v>0.854892684694146</v>
+        <v>0.858498433286992</v>
       </c>
       <c r="M2" t="n">
-        <v>0.750249954913725</v>
+        <v>0.765655071949008</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.788645827612425</v>
+        <v>0.79261426203095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.826914696449115</v>
+        <v>0.830364213497455</v>
       </c>
       <c r="D3" t="n">
-        <v>0.818635024804335</v>
+        <v>0.819780365655926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.831385591583265</v>
+        <v>0.832810161314702</v>
       </c>
       <c r="F3" t="n">
-        <v>0.885336718020133</v>
+        <v>0.882210929571279</v>
       </c>
       <c r="G3" t="n">
-        <v>0.773586083927806</v>
+        <v>0.766931048689246</v>
       </c>
       <c r="H3" t="n">
-        <v>0.80755174283964</v>
+        <v>0.818784709377611</v>
       </c>
       <c r="I3" t="n">
-        <v>0.819349700198285</v>
+        <v>0.8326006939725</v>
       </c>
       <c r="J3" t="n">
-        <v>0.75660879898846</v>
+        <v>0.753210212891499</v>
       </c>
       <c r="K3" t="n">
-        <v>0.80273154353578</v>
+        <v>0.803469252080118</v>
       </c>
       <c r="L3" t="n">
-        <v>0.863310146747793</v>
+        <v>0.867295711857724</v>
       </c>
       <c r="M3" t="n">
-        <v>0.735015779416777</v>
+        <v>0.739758144034939</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.720436945804157</v>
+        <v>0.729554427990161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.743995388295066</v>
+        <v>0.747761720148632</v>
       </c>
       <c r="D4" t="n">
-        <v>0.712890615575343</v>
+        <v>0.719320014288928</v>
       </c>
       <c r="E4" t="n">
-        <v>0.738918971294198</v>
+        <v>0.736135970751871</v>
       </c>
       <c r="F4" t="n">
-        <v>0.833613332766292</v>
+        <v>0.834619655527288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.735421289851351</v>
+        <v>0.72948311732878</v>
       </c>
       <c r="H4" t="n">
-        <v>0.765683259833572</v>
+        <v>0.775217795111752</v>
       </c>
       <c r="I4" t="n">
-        <v>0.692570045781656</v>
+        <v>0.706760146329535</v>
       </c>
       <c r="J4" t="n">
-        <v>0.641320782719161</v>
+        <v>0.656695382876286</v>
       </c>
       <c r="K4" t="n">
-        <v>0.727744241937024</v>
+        <v>0.727273775085943</v>
       </c>
       <c r="L4" t="n">
-        <v>0.886258588594652</v>
+        <v>0.892543358628936</v>
       </c>
       <c r="M4" t="n">
-        <v>0.67417685695335</v>
+        <v>0.693714709390885</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.714249383689252</v>
+        <v>0.719735004156196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.757638373129648</v>
+        <v>0.761667454407807</v>
       </c>
       <c r="D5" t="n">
-        <v>0.739646882380432</v>
+        <v>0.73896737069877</v>
       </c>
       <c r="E5" t="n">
-        <v>0.74323147008093</v>
+        <v>0.754375043420343</v>
       </c>
       <c r="F5" t="n">
-        <v>0.811468764785741</v>
+        <v>0.801462576440152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.745275297180582</v>
+        <v>0.739848682797038</v>
       </c>
       <c r="H5" t="n">
-        <v>0.759533346123266</v>
+        <v>0.760422338577383</v>
       </c>
       <c r="I5" t="n">
-        <v>0.752967704660125</v>
+        <v>0.768314288741651</v>
       </c>
       <c r="J5" t="n">
-        <v>0.69467778022864</v>
+        <v>0.693108049174999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.682262447550018</v>
+        <v>0.68147518512375</v>
       </c>
       <c r="L5" t="n">
-        <v>0.830273271151463</v>
+        <v>0.835803443597608</v>
       </c>
       <c r="M5" t="n">
-        <v>0.658057278622382</v>
+        <v>0.667112443994752</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.705483422632113</v>
+        <v>0.708355771804106</v>
       </c>
       <c r="C6" t="n">
-        <v>0.743612436358729</v>
+        <v>0.745007794504702</v>
       </c>
       <c r="D6" t="n">
-        <v>0.770616294694038</v>
+        <v>0.766796931008851</v>
       </c>
       <c r="E6" t="n">
-        <v>0.737845751501209</v>
+        <v>0.726588407685271</v>
       </c>
       <c r="F6" t="n">
-        <v>0.850065671807866</v>
+        <v>0.848382073163855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.674423320521451</v>
+        <v>0.668983131758453</v>
       </c>
       <c r="H6" t="n">
-        <v>0.691179502697815</v>
+        <v>0.697125046753403</v>
       </c>
       <c r="I6" t="n">
-        <v>0.708514585932321</v>
+        <v>0.728968848531311</v>
       </c>
       <c r="J6" t="n">
-        <v>0.607632435292161</v>
+        <v>0.619902488390305</v>
       </c>
       <c r="K6" t="n">
-        <v>0.721557600538781</v>
+        <v>0.723757500832147</v>
       </c>
       <c r="L6" t="n">
-        <v>0.764076778939229</v>
+        <v>0.770954770517034</v>
       </c>
       <c r="M6" t="n">
-        <v>0.650594096923356</v>
+        <v>0.653293074009574</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.688696792135118</v>
+        <v>0.697011995750776</v>
       </c>
       <c r="C7" t="n">
-        <v>0.735383310419964</v>
+        <v>0.736804634904581</v>
       </c>
       <c r="D7" t="n">
-        <v>0.783977570479214</v>
+        <v>0.785100361539822</v>
       </c>
       <c r="E7" t="n">
-        <v>0.70730847550699</v>
+        <v>0.700845702947036</v>
       </c>
       <c r="F7" t="n">
-        <v>0.78074101783242</v>
+        <v>0.779060496519964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.648796973287496</v>
+        <v>0.655023665749879</v>
       </c>
       <c r="H7" t="n">
-        <v>0.745045100665198</v>
+        <v>0.741728193509302</v>
       </c>
       <c r="I7" t="n">
-        <v>0.715386767363771</v>
+        <v>0.730826492743087</v>
       </c>
       <c r="J7" t="n">
-        <v>0.734339132286901</v>
+        <v>0.73759196915186</v>
       </c>
       <c r="K7" t="n">
-        <v>0.587518631229464</v>
+        <v>0.587571310390168</v>
       </c>
       <c r="L7" t="n">
-        <v>0.802176181998814</v>
+        <v>0.811335190427187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.652575522706528</v>
+        <v>0.671454224514916</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.682062306834173</v>
+        <v>0.690287070145355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.692636756637358</v>
+        <v>0.697780299668084</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634543139719425</v>
+        <v>0.643094976764936</v>
       </c>
       <c r="E8" t="n">
-        <v>0.595210644142353</v>
+        <v>0.601273824606408</v>
       </c>
       <c r="F8" t="n">
-        <v>0.811445186157046</v>
+        <v>0.811943604885881</v>
       </c>
       <c r="G8" t="n">
-        <v>0.802364404399347</v>
+        <v>0.798798675948325</v>
       </c>
       <c r="H8" t="n">
-        <v>0.721335401023819</v>
+        <v>0.721619332614749</v>
       </c>
       <c r="I8" t="n">
-        <v>0.68634384424696</v>
+        <v>0.704932598047592</v>
       </c>
       <c r="J8" t="n">
-        <v>0.638256954622158</v>
+        <v>0.646822191192263</v>
       </c>
       <c r="K8" t="n">
-        <v>0.688222447609661</v>
+        <v>0.687161454381797</v>
       </c>
       <c r="L8" t="n">
-        <v>0.876861893181052</v>
+        <v>0.882029147374621</v>
       </c>
       <c r="M8" t="n">
-        <v>0.649543844976068</v>
+        <v>0.665910548284897</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.665424081754628</v>
+        <v>0.676669995061992</v>
       </c>
       <c r="C9" t="n">
-        <v>0.682414854048698</v>
+        <v>0.685901562071191</v>
       </c>
       <c r="D9" t="n">
-        <v>0.66470018103647</v>
+        <v>0.671397435872952</v>
       </c>
       <c r="E9" t="n">
-        <v>0.656463451717921</v>
+        <v>0.651890839757597</v>
       </c>
       <c r="F9" t="n">
-        <v>0.783278298735313</v>
+        <v>0.78706549828119</v>
       </c>
       <c r="G9" t="n">
-        <v>0.610737671327812</v>
+        <v>0.604334337756316</v>
       </c>
       <c r="H9" t="n">
-        <v>0.773827956574152</v>
+        <v>0.7774120764937</v>
       </c>
       <c r="I9" t="n">
-        <v>0.619968012264582</v>
+        <v>0.634430856949094</v>
       </c>
       <c r="J9" t="n">
-        <v>0.600151660876826</v>
+        <v>0.614053219612671</v>
       </c>
       <c r="K9" t="n">
-        <v>0.62110832770549</v>
+        <v>0.622090537284503</v>
       </c>
       <c r="L9" t="n">
-        <v>0.856494857838063</v>
+        <v>0.862639131308883</v>
       </c>
       <c r="M9" t="n">
-        <v>0.639446246686369</v>
+        <v>0.664641839930459</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.641533376701362</v>
+        <v>0.653818291882699</v>
       </c>
       <c r="C10" t="n">
-        <v>0.688456001847835</v>
+        <v>0.692337666931195</v>
       </c>
       <c r="D10" t="n">
-        <v>0.671101587434301</v>
+        <v>0.681029000870754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.704065913683018</v>
+        <v>0.700033683160009</v>
       </c>
       <c r="F10" t="n">
-        <v>0.755553748673124</v>
+        <v>0.754804754621338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.649951807673302</v>
+        <v>0.657539965458233</v>
       </c>
       <c r="H10" t="n">
-        <v>0.72848538066114</v>
+        <v>0.731432235525187</v>
       </c>
       <c r="I10" t="n">
-        <v>0.61899000110661</v>
+        <v>0.642849823277248</v>
       </c>
       <c r="J10" t="n">
-        <v>0.617355091194304</v>
+        <v>0.630418089674976</v>
       </c>
       <c r="K10" t="n">
-        <v>0.58798628784799</v>
+        <v>0.587207629864752</v>
       </c>
       <c r="L10" t="n">
-        <v>0.851448576462916</v>
+        <v>0.856149005929794</v>
       </c>
       <c r="M10" t="n">
-        <v>0.582589506190872</v>
+        <v>0.609621593280115</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.523466962540999</v>
+        <v>0.53053062574106</v>
       </c>
       <c r="C11" t="n">
-        <v>0.555232924482739</v>
+        <v>0.555111776445323</v>
       </c>
       <c r="D11" t="n">
-        <v>0.602583635883865</v>
+        <v>0.608355513849745</v>
       </c>
       <c r="E11" t="n">
-        <v>0.570500826723657</v>
+        <v>0.562938105756571</v>
       </c>
       <c r="F11" t="n">
-        <v>0.553018402283411</v>
+        <v>0.55516653802731</v>
       </c>
       <c r="G11" t="n">
-        <v>0.545513758362751</v>
+        <v>0.547339937380028</v>
       </c>
       <c r="H11" t="n">
-        <v>0.544995893813048</v>
+        <v>0.541793164609764</v>
       </c>
       <c r="I11" t="n">
-        <v>0.513696716718328</v>
+        <v>0.525289394210321</v>
       </c>
       <c r="J11" t="n">
-        <v>0.473686913593986</v>
+        <v>0.495791262233434</v>
       </c>
       <c r="K11" t="n">
-        <v>0.461936701041611</v>
+        <v>0.463921335696334</v>
       </c>
       <c r="L11" t="n">
-        <v>0.679798483718248</v>
+        <v>0.690407940206933</v>
       </c>
       <c r="M11" t="n">
-        <v>0.488919096746892</v>
+        <v>0.508719204656642</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.812160039682174</v>
+        <v>0.810194888022368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.847463820458578</v>
+        <v>0.843978206156072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.872057340517393</v>
+        <v>0.866572127228228</v>
       </c>
       <c r="E2" t="n">
-        <v>0.83325687277087</v>
+        <v>0.827078685742989</v>
       </c>
       <c r="F2" t="n">
-        <v>0.889317950364356</v>
+        <v>0.888774505377363</v>
       </c>
       <c r="G2" t="n">
-        <v>0.809265601938392</v>
+        <v>0.788309742052631</v>
       </c>
       <c r="H2" t="n">
-        <v>0.816694022842935</v>
+        <v>0.813254042585487</v>
       </c>
       <c r="I2" t="n">
-        <v>0.849567209791186</v>
+        <v>0.853999575998437</v>
       </c>
       <c r="J2" t="n">
-        <v>0.794985774068069</v>
+        <v>0.773423212523683</v>
       </c>
       <c r="K2" t="n">
-        <v>0.811183589454443</v>
+        <v>0.806173129969987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.858498433286992</v>
+        <v>0.859553623962162</v>
       </c>
       <c r="M2" t="n">
-        <v>0.765655071949008</v>
+        <v>0.767807542799372</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.79261426203095</v>
+        <v>0.78794185875087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.830364213497455</v>
+        <v>0.820231998216116</v>
       </c>
       <c r="D3" t="n">
-        <v>0.819780365655926</v>
+        <v>0.811907205591862</v>
       </c>
       <c r="E3" t="n">
-        <v>0.832810161314702</v>
+        <v>0.806881985656633</v>
       </c>
       <c r="F3" t="n">
-        <v>0.882210929571279</v>
+        <v>0.883216508695824</v>
       </c>
       <c r="G3" t="n">
-        <v>0.766931048689246</v>
+        <v>0.716656390292452</v>
       </c>
       <c r="H3" t="n">
-        <v>0.818784709377611</v>
+        <v>0.80938575327201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8326006939725</v>
+        <v>0.845963888699056</v>
       </c>
       <c r="J3" t="n">
-        <v>0.753210212891499</v>
+        <v>0.752261706136369</v>
       </c>
       <c r="K3" t="n">
-        <v>0.803469252080118</v>
+        <v>0.804968987418959</v>
       </c>
       <c r="L3" t="n">
-        <v>0.867295711857724</v>
+        <v>0.870851551659494</v>
       </c>
       <c r="M3" t="n">
-        <v>0.739758144034939</v>
+        <v>0.740111944442514</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.729554427990161</v>
+        <v>0.730712572643564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.747761720148632</v>
+        <v>0.748627231605022</v>
       </c>
       <c r="D4" t="n">
-        <v>0.719320014288928</v>
+        <v>0.719347570564758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.736135970751871</v>
+        <v>0.733910266089133</v>
       </c>
       <c r="F4" t="n">
-        <v>0.834619655527288</v>
+        <v>0.83570773607823</v>
       </c>
       <c r="G4" t="n">
-        <v>0.72948311732878</v>
+        <v>0.717129396403951</v>
       </c>
       <c r="H4" t="n">
-        <v>0.775217795111752</v>
+        <v>0.770546743264546</v>
       </c>
       <c r="I4" t="n">
-        <v>0.706760146329535</v>
+        <v>0.724763201834602</v>
       </c>
       <c r="J4" t="n">
-        <v>0.656695382876286</v>
+        <v>0.667442126414247</v>
       </c>
       <c r="K4" t="n">
-        <v>0.727273775085943</v>
+        <v>0.727201227855492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.892543358628936</v>
+        <v>0.894499688071821</v>
       </c>
       <c r="M4" t="n">
-        <v>0.693714709390885</v>
+        <v>0.697721961151291</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.719735004156196</v>
+        <v>0.72042916037702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.761667454407807</v>
+        <v>0.761932435910776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.73896737069877</v>
+        <v>0.720303245818442</v>
       </c>
       <c r="E5" t="n">
-        <v>0.754375043420343</v>
+        <v>0.756868069241599</v>
       </c>
       <c r="F5" t="n">
-        <v>0.801462576440152</v>
+        <v>0.802386607493625</v>
       </c>
       <c r="G5" t="n">
-        <v>0.739848682797038</v>
+        <v>0.7250772374002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.760422338577383</v>
+        <v>0.763310673110362</v>
       </c>
       <c r="I5" t="n">
-        <v>0.768314288741651</v>
+        <v>0.78061912302082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.693108049174999</v>
+        <v>0.721726707430624</v>
       </c>
       <c r="K5" t="n">
-        <v>0.68147518512375</v>
+        <v>0.67685065346556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.835803443597608</v>
+        <v>0.836791104476278</v>
       </c>
       <c r="M5" t="n">
-        <v>0.667112443994752</v>
+        <v>0.671916850954642</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.708355771804106</v>
+        <v>0.709723223901674</v>
       </c>
       <c r="C6" t="n">
-        <v>0.745007794504702</v>
+        <v>0.746931207916325</v>
       </c>
       <c r="D6" t="n">
-        <v>0.766796931008851</v>
+        <v>0.749211487143156</v>
       </c>
       <c r="E6" t="n">
-        <v>0.726588407685271</v>
+        <v>0.739300715467795</v>
       </c>
       <c r="F6" t="n">
-        <v>0.848382073163855</v>
+        <v>0.848419375204591</v>
       </c>
       <c r="G6" t="n">
-        <v>0.668983131758453</v>
+        <v>0.659131063582329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.697125046753403</v>
+        <v>0.695127487350912</v>
       </c>
       <c r="I6" t="n">
-        <v>0.728968848531311</v>
+        <v>0.739704530251875</v>
       </c>
       <c r="J6" t="n">
-        <v>0.619902488390305</v>
+        <v>0.625377265896113</v>
       </c>
       <c r="K6" t="n">
-        <v>0.723757500832147</v>
+        <v>0.724439116962957</v>
       </c>
       <c r="L6" t="n">
-        <v>0.770954770517034</v>
+        <v>0.770097780765828</v>
       </c>
       <c r="M6" t="n">
-        <v>0.653293074009574</v>
+        <v>0.656089893026247</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.697011995750776</v>
+        <v>0.695892423275674</v>
       </c>
       <c r="C7" t="n">
-        <v>0.736804634904581</v>
+        <v>0.732870289440397</v>
       </c>
       <c r="D7" t="n">
-        <v>0.785100361539822</v>
+        <v>0.776964615344406</v>
       </c>
       <c r="E7" t="n">
-        <v>0.700845702947036</v>
+        <v>0.696966943798898</v>
       </c>
       <c r="F7" t="n">
-        <v>0.779060496519964</v>
+        <v>0.779538293526919</v>
       </c>
       <c r="G7" t="n">
-        <v>0.655023665749879</v>
+        <v>0.612876561840658</v>
       </c>
       <c r="H7" t="n">
-        <v>0.741728193509302</v>
+        <v>0.738317533612799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.730826492743087</v>
+        <v>0.747513876364388</v>
       </c>
       <c r="J7" t="n">
-        <v>0.73759196915186</v>
+        <v>0.718133301168214</v>
       </c>
       <c r="K7" t="n">
-        <v>0.587571310390168</v>
+        <v>0.58759070342811</v>
       </c>
       <c r="L7" t="n">
-        <v>0.811335190427187</v>
+        <v>0.814900578705803</v>
       </c>
       <c r="M7" t="n">
-        <v>0.671454224514916</v>
+        <v>0.674291226582879</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.690287070145355</v>
+        <v>0.689528884612506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.697780299668084</v>
+        <v>0.698508510826339</v>
       </c>
       <c r="D8" t="n">
-        <v>0.643094976764936</v>
+        <v>0.642715315691589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.601273824606408</v>
+        <v>0.600548950301388</v>
       </c>
       <c r="F8" t="n">
-        <v>0.811943604885881</v>
+        <v>0.812684805143714</v>
       </c>
       <c r="G8" t="n">
-        <v>0.798798675948325</v>
+        <v>0.794392466255568</v>
       </c>
       <c r="H8" t="n">
-        <v>0.721619332614749</v>
+        <v>0.71745735238834</v>
       </c>
       <c r="I8" t="n">
-        <v>0.704932598047592</v>
+        <v>0.724356614157177</v>
       </c>
       <c r="J8" t="n">
-        <v>0.646822191192263</v>
+        <v>0.650323736989535</v>
       </c>
       <c r="K8" t="n">
-        <v>0.687161454381797</v>
+        <v>0.68319988085691</v>
       </c>
       <c r="L8" t="n">
-        <v>0.882029147374621</v>
+        <v>0.883360143018035</v>
       </c>
       <c r="M8" t="n">
-        <v>0.665910548284897</v>
+        <v>0.665951307699963</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.676669995061992</v>
+        <v>0.678161164771646</v>
       </c>
       <c r="C9" t="n">
-        <v>0.685901562071191</v>
+        <v>0.689223510024568</v>
       </c>
       <c r="D9" t="n">
-        <v>0.671397435872952</v>
+        <v>0.663203246136222</v>
       </c>
       <c r="E9" t="n">
-        <v>0.651890839757597</v>
+        <v>0.668909891633291</v>
       </c>
       <c r="F9" t="n">
-        <v>0.78706549828119</v>
+        <v>0.787318727112064</v>
       </c>
       <c r="G9" t="n">
-        <v>0.604334337756316</v>
+        <v>0.586990880973224</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7774120764937</v>
+        <v>0.772443771779816</v>
       </c>
       <c r="I9" t="n">
-        <v>0.634430856949094</v>
+        <v>0.654946097870933</v>
       </c>
       <c r="J9" t="n">
-        <v>0.614053219612671</v>
+        <v>0.641630244899629</v>
       </c>
       <c r="K9" t="n">
-        <v>0.622090537284503</v>
+        <v>0.622578662753108</v>
       </c>
       <c r="L9" t="n">
-        <v>0.862639131308883</v>
+        <v>0.863575793802146</v>
       </c>
       <c r="M9" t="n">
-        <v>0.664641839930459</v>
+        <v>0.665368022291671</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.653818291882699</v>
+        <v>0.654694159928647</v>
       </c>
       <c r="C10" t="n">
-        <v>0.692337666931195</v>
+        <v>0.69192411456902</v>
       </c>
       <c r="D10" t="n">
-        <v>0.681029000870754</v>
+        <v>0.677768220232769</v>
       </c>
       <c r="E10" t="n">
-        <v>0.700033683160009</v>
+        <v>0.688283637483319</v>
       </c>
       <c r="F10" t="n">
-        <v>0.754804754621338</v>
+        <v>0.757717193334531</v>
       </c>
       <c r="G10" t="n">
-        <v>0.657539965458233</v>
+        <v>0.632201156950068</v>
       </c>
       <c r="H10" t="n">
-        <v>0.731432235525187</v>
+        <v>0.73213923408807</v>
       </c>
       <c r="I10" t="n">
-        <v>0.642849823277248</v>
+        <v>0.668233479894725</v>
       </c>
       <c r="J10" t="n">
-        <v>0.630418089674976</v>
+        <v>0.645323472858561</v>
       </c>
       <c r="K10" t="n">
-        <v>0.587207629864752</v>
+        <v>0.589973195888163</v>
       </c>
       <c r="L10" t="n">
-        <v>0.856149005929794</v>
+        <v>0.858825470219245</v>
       </c>
       <c r="M10" t="n">
-        <v>0.609621593280115</v>
+        <v>0.614095688520786</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.53053062574106</v>
+        <v>0.527869258873442</v>
       </c>
       <c r="C11" t="n">
-        <v>0.555111776445323</v>
+        <v>0.551475483086733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.608355513849745</v>
+        <v>0.616758276280248</v>
       </c>
       <c r="E11" t="n">
-        <v>0.562938105756571</v>
+        <v>0.542904806999543</v>
       </c>
       <c r="F11" t="n">
-        <v>0.55516653802731</v>
+        <v>0.555847318045528</v>
       </c>
       <c r="G11" t="n">
-        <v>0.547339937380028</v>
+        <v>0.527788999798779</v>
       </c>
       <c r="H11" t="n">
-        <v>0.541793164609764</v>
+        <v>0.538544964808905</v>
       </c>
       <c r="I11" t="n">
-        <v>0.525289394210321</v>
+        <v>0.535237211156328</v>
       </c>
       <c r="J11" t="n">
-        <v>0.495791262233434</v>
+        <v>0.506594819956859</v>
       </c>
       <c r="K11" t="n">
-        <v>0.463921335696334</v>
+        <v>0.463457653897951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.690407940206933</v>
+        <v>0.695189510992556</v>
       </c>
       <c r="M11" t="n">
-        <v>0.508719204656642</v>
+        <v>0.507504485068355</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
+vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -69,23 +72,23 @@
 India, Brazil, African Union), restrict veto use</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
     <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
 allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
   </si>
   <si>
     <t xml:space="preserve">International levy on aviation carbon emissions, raising
@@ -461,13 +464,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.810194888022368</v>
+        <v>0.80943267909195</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -497,18 +503,21 @@
         <v>0.806173129969987</v>
       </c>
       <c r="L2" t="n">
+        <v>0.802117800114975</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.859553623962162</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.767807542799372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.78794185875087</v>
+        <v>0.79548801307109</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -538,18 +547,21 @@
         <v>0.804968987418959</v>
       </c>
       <c r="L3" t="n">
+        <v>0.843256236637131</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.870851551659494</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.740111944442514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.730712572643564</v>
+        <v>0.749175821303497</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -579,15 +591,18 @@
         <v>0.727201227855492</v>
       </c>
       <c r="L4" t="n">
+        <v>0.872134655152247</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.894499688071821</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.697721961151291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.72042916037702</v>
@@ -619,104 +634,111 @@
       <c r="K5" t="n">
         <v>0.67685065346556</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5"/>
+      <c r="M5" t="n">
         <v>0.836791104476278</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.671916850954642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.709723223901674</v>
+        <v>0.701759601462557</v>
       </c>
       <c r="C6" t="n">
-        <v>0.746931207916325</v>
+        <v>0.732870289440397</v>
       </c>
       <c r="D6" t="n">
-        <v>0.749211487143156</v>
+        <v>0.776964615344406</v>
       </c>
       <c r="E6" t="n">
-        <v>0.739300715467795</v>
+        <v>0.696966943798898</v>
       </c>
       <c r="F6" t="n">
-        <v>0.848419375204591</v>
+        <v>0.779538293526919</v>
       </c>
       <c r="G6" t="n">
-        <v>0.659131063582329</v>
+        <v>0.612876561840658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.695127487350912</v>
+        <v>0.738317533612799</v>
       </c>
       <c r="I6" t="n">
-        <v>0.739704530251875</v>
+        <v>0.747513876364388</v>
       </c>
       <c r="J6" t="n">
-        <v>0.625377265896113</v>
+        <v>0.718133301168214</v>
       </c>
       <c r="K6" t="n">
-        <v>0.724439116962957</v>
+        <v>0.58759070342811</v>
       </c>
       <c r="L6" t="n">
-        <v>0.770097780765828</v>
+        <v>0.740556238975573</v>
       </c>
       <c r="M6" t="n">
-        <v>0.656089893026247</v>
+        <v>0.814900578705803</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.674291226582879</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.695892423275674</v>
+        <v>0.697366885721368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.732870289440397</v>
+        <v>0.689223510024568</v>
       </c>
       <c r="D7" t="n">
-        <v>0.776964615344406</v>
+        <v>0.663203246136222</v>
       </c>
       <c r="E7" t="n">
-        <v>0.696966943798898</v>
+        <v>0.668909891633291</v>
       </c>
       <c r="F7" t="n">
-        <v>0.779538293526919</v>
+        <v>0.787318727112064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.612876561840658</v>
+        <v>0.586990880973224</v>
       </c>
       <c r="H7" t="n">
-        <v>0.738317533612799</v>
+        <v>0.772443771779816</v>
       </c>
       <c r="I7" t="n">
-        <v>0.747513876364388</v>
+        <v>0.654946097870933</v>
       </c>
       <c r="J7" t="n">
-        <v>0.718133301168214</v>
+        <v>0.641630244899629</v>
       </c>
       <c r="K7" t="n">
-        <v>0.58759070342811</v>
+        <v>0.622578662753108</v>
       </c>
       <c r="L7" t="n">
-        <v>0.814900578705803</v>
+        <v>0.814587216757482</v>
       </c>
       <c r="M7" t="n">
-        <v>0.674291226582879</v>
+        <v>0.863575793802146</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.665368022291671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.689528884612506</v>
+        <v>0.695986827701595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.698508510826339</v>
+        <v>0.698508510826338</v>
       </c>
       <c r="D8" t="n">
         <v>0.642715315691589</v>
@@ -743,100 +765,109 @@
         <v>0.68319988085691</v>
       </c>
       <c r="L8" t="n">
+        <v>0.737693207103728</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.883360143018035</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.665951307699963</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.678161164771646</v>
+        <v>0.68290511814404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.689223510024568</v>
+        <v>0.69192411456902</v>
       </c>
       <c r="D9" t="n">
-        <v>0.663203246136222</v>
+        <v>0.677768220232769</v>
       </c>
       <c r="E9" t="n">
-        <v>0.668909891633291</v>
+        <v>0.688283637483319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.787318727112064</v>
+        <v>0.757717193334531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.586990880973224</v>
+        <v>0.632201156950068</v>
       </c>
       <c r="H9" t="n">
-        <v>0.772443771779816</v>
+        <v>0.73213923408807</v>
       </c>
       <c r="I9" t="n">
-        <v>0.654946097870933</v>
+        <v>0.668233479894725</v>
       </c>
       <c r="J9" t="n">
-        <v>0.641630244899629</v>
+        <v>0.645323472858561</v>
       </c>
       <c r="K9" t="n">
-        <v>0.622578662753108</v>
+        <v>0.589973195888163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.863575793802146</v>
+        <v>0.870815172529472</v>
       </c>
       <c r="M9" t="n">
-        <v>0.665368022291671</v>
+        <v>0.858825470219245</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.614095688520786</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.654694159928647</v>
+        <v>0.679811791506789</v>
       </c>
       <c r="C10" t="n">
-        <v>0.69192411456902</v>
+        <v>0.746931207916325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.677768220232769</v>
+        <v>0.749211487143156</v>
       </c>
       <c r="E10" t="n">
-        <v>0.688283637483319</v>
+        <v>0.739300715467795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.757717193334531</v>
+        <v>0.848419375204591</v>
       </c>
       <c r="G10" t="n">
-        <v>0.632201156950068</v>
+        <v>0.659131063582329</v>
       </c>
       <c r="H10" t="n">
-        <v>0.73213923408807</v>
+        <v>0.695127487350912</v>
       </c>
       <c r="I10" t="n">
-        <v>0.668233479894725</v>
+        <v>0.739704530251875</v>
       </c>
       <c r="J10" t="n">
-        <v>0.645323472858561</v>
+        <v>0.625377265896113</v>
       </c>
       <c r="K10" t="n">
-        <v>0.589973195888163</v>
+        <v>0.724439116962957</v>
       </c>
       <c r="L10" t="n">
-        <v>0.858825470219245</v>
+        <v>0.490078686171174</v>
       </c>
       <c r="M10" t="n">
-        <v>0.614095688520786</v>
+        <v>0.770097780765828</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.656089893026247</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.527869258873442</v>
+        <v>0.52924709608819</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -866,9 +897,12 @@
         <v>0.463457653897951</v>
       </c>
       <c r="L11" t="n">
+        <v>0.533861007595879</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.695189510992556</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.507504485068355</v>
       </c>
     </row>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.80943267909195</v>
+        <v>0.809344860228205</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -503,7 +503,7 @@
         <v>0.806173129969987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.802117800114975</v>
+        <v>0.801147552599738</v>
       </c>
       <c r="M2" t="n">
         <v>0.859553623962162</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.79548801307109</v>
+        <v>0.795770711337773</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -547,7 +547,7 @@
         <v>0.804968987418959</v>
       </c>
       <c r="L3" t="n">
-        <v>0.843256236637131</v>
+        <v>0.846164183472447</v>
       </c>
       <c r="M3" t="n">
         <v>0.870851551659494</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.749175821303497</v>
+        <v>0.749015161815905</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -591,7 +591,7 @@
         <v>0.727201227855492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.872134655152247</v>
+        <v>0.871272510108904</v>
       </c>
       <c r="M4" t="n">
         <v>0.894499688071821</v>
@@ -647,7 +647,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.701759601462557</v>
+        <v>0.701603397507481</v>
       </c>
       <c r="C6" t="n">
         <v>0.732870289440397</v>
@@ -677,7 +677,7 @@
         <v>0.58759070342811</v>
       </c>
       <c r="L6" t="n">
-        <v>0.740556238975573</v>
+        <v>0.739426656403382</v>
       </c>
       <c r="M6" t="n">
         <v>0.814900578705803</v>
@@ -691,7 +691,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.697366885721368</v>
+        <v>0.697266962588057</v>
       </c>
       <c r="C7" t="n">
         <v>0.689223510024568</v>
@@ -721,7 +721,7 @@
         <v>0.622578662753108</v>
       </c>
       <c r="L7" t="n">
-        <v>0.814587216757482</v>
+        <v>0.813553962659929</v>
       </c>
       <c r="M7" t="n">
         <v>0.863575793802146</v>
@@ -735,10 +735,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.695986827701595</v>
+        <v>0.695755266368627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.698508510826338</v>
+        <v>0.698508510826339</v>
       </c>
       <c r="D8" t="n">
         <v>0.642715315691589</v>
@@ -765,7 +765,7 @@
         <v>0.68319988085691</v>
       </c>
       <c r="L8" t="n">
-        <v>0.737693207103728</v>
+        <v>0.736168220587948</v>
       </c>
       <c r="M8" t="n">
         <v>0.883360143018035</v>
@@ -779,7 +779,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.68290511814404</v>
+        <v>0.682754371718933</v>
       </c>
       <c r="C9" t="n">
         <v>0.69192411456902</v>
@@ -809,7 +809,7 @@
         <v>0.589973195888163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.870815172529472</v>
+        <v>0.869988382094075</v>
       </c>
       <c r="M9" t="n">
         <v>0.858825470219245</v>
@@ -823,7 +823,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.679811791506789</v>
+        <v>0.679464760337369</v>
       </c>
       <c r="C10" t="n">
         <v>0.746931207916325</v>
@@ -853,7 +853,7 @@
         <v>0.724439116962957</v>
       </c>
       <c r="L10" t="n">
-        <v>0.490078686171174</v>
+        <v>0.487953574095349</v>
       </c>
       <c r="M10" t="n">
         <v>0.770097780765828</v>
@@ -867,7 +867,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.52924709608819</v>
+        <v>0.529374685304981</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -897,7 +897,7 @@
         <v>0.463457653897951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.533861007595879</v>
+        <v>0.53515246637482</v>
       </c>
       <c r="M11" t="n">
         <v>0.695189510992556</v>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -68,12 +68,12 @@
 vulnerable countries cope with climate Loss and damage</t>
   </si>
   <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
   </si>
   <si>
     <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.809344860228205</v>
+        <v>0.807885696236268</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -503,7 +503,7 @@
         <v>0.806173129969987</v>
       </c>
       <c r="L2" t="n">
-        <v>0.801147552599738</v>
+        <v>0.790720704052685</v>
       </c>
       <c r="M2" t="n">
         <v>0.859553623962162</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.795770711337773</v>
+        <v>0.794189426632509</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -547,7 +547,7 @@
         <v>0.804968987418959</v>
       </c>
       <c r="L3" t="n">
-        <v>0.846164183472447</v>
+        <v>0.83450478996974</v>
       </c>
       <c r="M3" t="n">
         <v>0.870851551659494</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.749015161815905</v>
+        <v>0.74891324454649</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -591,7 +591,7 @@
         <v>0.727201227855492</v>
       </c>
       <c r="L4" t="n">
-        <v>0.871272510108904</v>
+        <v>0.873558433686924</v>
       </c>
       <c r="M4" t="n">
         <v>0.894499688071821</v>
@@ -605,41 +605,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.72042916037702</v>
+        <v>0.700357100296232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.761932435910776</v>
+        <v>0.732870289440397</v>
       </c>
       <c r="D5" t="n">
-        <v>0.720303245818442</v>
+        <v>0.776964615344406</v>
       </c>
       <c r="E5" t="n">
-        <v>0.756868069241599</v>
+        <v>0.696966943798898</v>
       </c>
       <c r="F5" t="n">
-        <v>0.802386607493625</v>
+        <v>0.779538293526919</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7250772374002</v>
+        <v>0.612876561840658</v>
       </c>
       <c r="H5" t="n">
-        <v>0.763310673110362</v>
+        <v>0.738317533612799</v>
       </c>
       <c r="I5" t="n">
-        <v>0.78061912302082</v>
+        <v>0.747513876364388</v>
       </c>
       <c r="J5" t="n">
-        <v>0.721726707430624</v>
+        <v>0.718133301168214</v>
       </c>
       <c r="K5" t="n">
-        <v>0.67685065346556</v>
-      </c>
-      <c r="L5"/>
+        <v>0.58759070342811</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.731306566882626</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.836791104476278</v>
+        <v>0.814900578705803</v>
       </c>
       <c r="N5" t="n">
-        <v>0.671916850954642</v>
+        <v>0.674291226582879</v>
       </c>
     </row>
     <row r="6">
@@ -647,43 +649,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.701603397507481</v>
+        <v>0.698034537168434</v>
       </c>
       <c r="C6" t="n">
-        <v>0.732870289440397</v>
+        <v>0.761932435910776</v>
       </c>
       <c r="D6" t="n">
-        <v>0.776964615344406</v>
+        <v>0.720303245818442</v>
       </c>
       <c r="E6" t="n">
-        <v>0.696966943798898</v>
+        <v>0.756868069241599</v>
       </c>
       <c r="F6" t="n">
-        <v>0.779538293526919</v>
+        <v>0.802386607493625</v>
       </c>
       <c r="G6" t="n">
-        <v>0.612876561840658</v>
+        <v>0.7250772374002</v>
       </c>
       <c r="H6" t="n">
-        <v>0.738317533612799</v>
+        <v>0.763310673110362</v>
       </c>
       <c r="I6" t="n">
-        <v>0.747513876364388</v>
+        <v>0.78061912302082</v>
       </c>
       <c r="J6" t="n">
-        <v>0.718133301168214</v>
+        <v>0.721726707430624</v>
       </c>
       <c r="K6" t="n">
-        <v>0.58759070342811</v>
+        <v>0.67685065346556</v>
       </c>
       <c r="L6" t="n">
-        <v>0.739426656403382</v>
+        <v>0.552689160628133</v>
       </c>
       <c r="M6" t="n">
-        <v>0.814900578705803</v>
+        <v>0.836791104476278</v>
       </c>
       <c r="N6" t="n">
-        <v>0.674291226582879</v>
+        <v>0.671916850954642</v>
       </c>
     </row>
     <row r="7">
@@ -691,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.697266962588057</v>
+        <v>0.696942403411651</v>
       </c>
       <c r="C7" t="n">
         <v>0.689223510024568</v>
@@ -721,7 +723,7 @@
         <v>0.622578662753108</v>
       </c>
       <c r="L7" t="n">
-        <v>0.813553962659929</v>
+        <v>0.813558582458709</v>
       </c>
       <c r="M7" t="n">
         <v>0.863575793802146</v>
@@ -735,10 +737,10 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.695755266368627</v>
+        <v>0.694726686848076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.698508510826339</v>
+        <v>0.698508510826338</v>
       </c>
       <c r="D8" t="n">
         <v>0.642715315691589</v>
@@ -765,7 +767,7 @@
         <v>0.68319988085691</v>
       </c>
       <c r="L8" t="n">
-        <v>0.736168220587948</v>
+        <v>0.730009595228465</v>
       </c>
       <c r="M8" t="n">
         <v>0.883360143018035</v>
@@ -779,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.682754371718933</v>
+        <v>0.682188628877153</v>
       </c>
       <c r="C9" t="n">
         <v>0.69192411456902</v>
@@ -809,7 +811,7 @@
         <v>0.589973195888163</v>
       </c>
       <c r="L9" t="n">
-        <v>0.869988382094075</v>
+        <v>0.868962834674846</v>
       </c>
       <c r="M9" t="n">
         <v>0.858825470219245</v>
@@ -823,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.679464760337369</v>
+        <v>0.68030147177849</v>
       </c>
       <c r="C10" t="n">
         <v>0.746931207916325</v>
@@ -853,7 +855,7 @@
         <v>0.724439116962957</v>
       </c>
       <c r="L10" t="n">
-        <v>0.487953574095349</v>
+        <v>0.493073564956229</v>
       </c>
       <c r="M10" t="n">
         <v>0.770097780765828</v>
@@ -867,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.529374685304981</v>
+        <v>0.527237118011288</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -897,7 +899,7 @@
         <v>0.463457653897951</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53515246637482</v>
+        <v>0.519297451909645</v>
       </c>
       <c r="M11" t="n">
         <v>0.695189510992556</v>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -72,15 +72,15 @@
 returned to countries based on population</t>
   </si>
   <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
 India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
   </si>
   <si>
     <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.807885696236268</v>
+        <v>0.809187541057965</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -500,16 +500,16 @@
         <v>0.773423212523683</v>
       </c>
       <c r="K2" t="n">
-        <v>0.806173129969987</v>
+        <v>0.806172053330117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.790720704052685</v>
+        <v>0.801008544697843</v>
       </c>
       <c r="M2" t="n">
         <v>0.859553623962162</v>
       </c>
       <c r="N2" t="n">
-        <v>0.767807542799372</v>
+        <v>0.767713744042883</v>
       </c>
     </row>
     <row r="3">
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.794189426632509</v>
+        <v>0.793366965036613</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -544,16 +544,16 @@
         <v>0.752261706136369</v>
       </c>
       <c r="K3" t="n">
-        <v>0.804968987418959</v>
+        <v>0.805037944194611</v>
       </c>
       <c r="L3" t="n">
-        <v>0.83450478996974</v>
+        <v>0.829224529123518</v>
       </c>
       <c r="M3" t="n">
         <v>0.870851551659494</v>
       </c>
       <c r="N3" t="n">
-        <v>0.740111944442514</v>
+        <v>0.740197166164522</v>
       </c>
     </row>
     <row r="4">
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.74891324454649</v>
+        <v>0.748295871658231</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -588,16 +588,16 @@
         <v>0.667442126414247</v>
       </c>
       <c r="K4" t="n">
-        <v>0.727201227855492</v>
+        <v>0.727293734869913</v>
       </c>
       <c r="L4" t="n">
-        <v>0.873558433686924</v>
+        <v>0.866768469161838</v>
       </c>
       <c r="M4" t="n">
         <v>0.894499688071821</v>
       </c>
       <c r="N4" t="n">
-        <v>0.697721961151291</v>
+        <v>0.697898274519676</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.700357100296232</v>
+        <v>0.699644803977167</v>
       </c>
       <c r="C5" t="n">
         <v>0.732870289440397</v>
@@ -632,16 +632,16 @@
         <v>0.718133301168214</v>
       </c>
       <c r="K5" t="n">
-        <v>0.58759070342811</v>
+        <v>0.58767644567848</v>
       </c>
       <c r="L5" t="n">
-        <v>0.731306566882626</v>
+        <v>0.72514029245591</v>
       </c>
       <c r="M5" t="n">
         <v>0.814900578705803</v>
       </c>
       <c r="N5" t="n">
-        <v>0.674291226582879</v>
+        <v>0.674357186299684</v>
       </c>
     </row>
     <row r="6">
@@ -649,43 +649,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698034537168434</v>
+        <v>0.698715666285492</v>
       </c>
       <c r="C6" t="n">
-        <v>0.761932435910776</v>
+        <v>0.689223510024568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.720303245818442</v>
+        <v>0.663203246136222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.756868069241599</v>
+        <v>0.668909891633291</v>
       </c>
       <c r="F6" t="n">
-        <v>0.802386607493625</v>
+        <v>0.787318727112064</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7250772374002</v>
+        <v>0.586990880973224</v>
       </c>
       <c r="H6" t="n">
-        <v>0.763310673110362</v>
+        <v>0.772443771779816</v>
       </c>
       <c r="I6" t="n">
-        <v>0.78061912302082</v>
+        <v>0.654946097870933</v>
       </c>
       <c r="J6" t="n">
-        <v>0.721726707430624</v>
+        <v>0.641630244899629</v>
       </c>
       <c r="K6" t="n">
-        <v>0.67685065346556</v>
+        <v>0.622706835721545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.552689160628133</v>
+        <v>0.825522087700358</v>
       </c>
       <c r="M6" t="n">
-        <v>0.836791104476278</v>
+        <v>0.863575793802146</v>
       </c>
       <c r="N6" t="n">
-        <v>0.671916850954642</v>
+        <v>0.665329447652658</v>
       </c>
     </row>
     <row r="7">
@@ -693,43 +693,43 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696942403411651</v>
+        <v>0.696886644817168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.689223510024568</v>
+        <v>0.698508510826339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.663203246136222</v>
+        <v>0.642715315691589</v>
       </c>
       <c r="E7" t="n">
-        <v>0.668909891633291</v>
+        <v>0.600548950301388</v>
       </c>
       <c r="F7" t="n">
-        <v>0.787318727112064</v>
+        <v>0.812684805143714</v>
       </c>
       <c r="G7" t="n">
-        <v>0.586990880973224</v>
+        <v>0.794392466255568</v>
       </c>
       <c r="H7" t="n">
-        <v>0.772443771779816</v>
+        <v>0.71745735238834</v>
       </c>
       <c r="I7" t="n">
-        <v>0.654946097870933</v>
+        <v>0.724356614157177</v>
       </c>
       <c r="J7" t="n">
-        <v>0.641630244899629</v>
+        <v>0.650323736989535</v>
       </c>
       <c r="K7" t="n">
-        <v>0.622578662753108</v>
+        <v>0.683253184348732</v>
       </c>
       <c r="L7" t="n">
-        <v>0.813558582458709</v>
+        <v>0.746898541844184</v>
       </c>
       <c r="M7" t="n">
-        <v>0.863575793802146</v>
+        <v>0.883360143018035</v>
       </c>
       <c r="N7" t="n">
-        <v>0.665368022291671</v>
+        <v>0.666083774070859</v>
       </c>
     </row>
     <row r="8">
@@ -737,43 +737,43 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.694726686848076</v>
+        <v>0.694962460493881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.698508510826338</v>
+        <v>0.761932435910776</v>
       </c>
       <c r="D8" t="n">
-        <v>0.642715315691589</v>
+        <v>0.720303245818442</v>
       </c>
       <c r="E8" t="n">
-        <v>0.600548950301388</v>
+        <v>0.756868069241599</v>
       </c>
       <c r="F8" t="n">
-        <v>0.812684805143714</v>
+        <v>0.802386607493625</v>
       </c>
       <c r="G8" t="n">
-        <v>0.794392466255568</v>
+        <v>0.7250772374002</v>
       </c>
       <c r="H8" t="n">
-        <v>0.71745735238834</v>
+        <v>0.763310673110362</v>
       </c>
       <c r="I8" t="n">
-        <v>0.724356614157177</v>
+        <v>0.78061912302082</v>
       </c>
       <c r="J8" t="n">
-        <v>0.650323736989535</v>
+        <v>0.721726707430624</v>
       </c>
       <c r="K8" t="n">
-        <v>0.68319988085691</v>
+        <v>0.67681938156</v>
       </c>
       <c r="L8" t="n">
-        <v>0.730009595228465</v>
+        <v>0.52836576507021</v>
       </c>
       <c r="M8" t="n">
-        <v>0.883360143018035</v>
+        <v>0.836791104476278</v>
       </c>
       <c r="N8" t="n">
-        <v>0.665951307699963</v>
+        <v>0.671764356435874</v>
       </c>
     </row>
     <row r="9">
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.682188628877153</v>
+        <v>0.683174203642518</v>
       </c>
       <c r="C9" t="n">
         <v>0.69192411456902</v>
@@ -808,16 +808,16 @@
         <v>0.645323472858561</v>
       </c>
       <c r="K9" t="n">
-        <v>0.589973195888163</v>
+        <v>0.59008286280892</v>
       </c>
       <c r="L9" t="n">
-        <v>0.868962834674846</v>
+        <v>0.875589503017251</v>
       </c>
       <c r="M9" t="n">
         <v>0.858825470219245</v>
       </c>
       <c r="N9" t="n">
-        <v>0.614095688520786</v>
+        <v>0.614162213651268</v>
       </c>
     </row>
     <row r="10">
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.68030147177849</v>
+        <v>0.682119272063001</v>
       </c>
       <c r="C10" t="n">
         <v>0.746931207916325</v>
@@ -852,16 +852,16 @@
         <v>0.625377265896113</v>
       </c>
       <c r="K10" t="n">
-        <v>0.724439116962957</v>
+        <v>0.7245399038347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.493073564956229</v>
+        <v>0.50012458723726</v>
       </c>
       <c r="M10" t="n">
         <v>0.770097780765828</v>
       </c>
       <c r="N10" t="n">
-        <v>0.656089893026247</v>
+        <v>0.655816868493662</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.527237118011288</v>
+        <v>0.526319576644156</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -896,16 +896,16 @@
         <v>0.506594819956859</v>
       </c>
       <c r="K11" t="n">
-        <v>0.463457653897951</v>
+        <v>0.46350801136536</v>
       </c>
       <c r="L11" t="n">
-        <v>0.519297451909645</v>
+        <v>0.514246894490421</v>
       </c>
       <c r="M11" t="n">
         <v>0.695189510992556</v>
       </c>
       <c r="N11" t="n">
-        <v>0.507504485068355</v>
+        <v>0.507370211647722</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/solidarity_support_share.xlsx
+++ b/xlsx/country_comparison/solidarity_support_share.xlsx
@@ -473,7 +473,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.809187541057965</v>
+        <v>0.80964450411054</v>
       </c>
       <c r="C2" t="n">
         <v>0.843978206156072</v>
@@ -503,7 +503,7 @@
         <v>0.806172053330117</v>
       </c>
       <c r="L2" t="n">
-        <v>0.801008544697843</v>
+        <v>0.804252152930746</v>
       </c>
       <c r="M2" t="n">
         <v>0.859553623962162</v>
@@ -517,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.793366965036613</v>
+        <v>0.793302229139668</v>
       </c>
       <c r="C3" t="n">
         <v>0.820231998216116</v>
@@ -547,7 +547,7 @@
         <v>0.805037944194611</v>
       </c>
       <c r="L3" t="n">
-        <v>0.829224529123518</v>
+        <v>0.82923199154678</v>
       </c>
       <c r="M3" t="n">
         <v>0.870851551659494</v>
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.748295871658231</v>
+        <v>0.748783561969176</v>
       </c>
       <c r="C4" t="n">
         <v>0.748627231605022</v>
@@ -591,7 +591,7 @@
         <v>0.727293734869913</v>
       </c>
       <c r="L4" t="n">
-        <v>0.866768469161838</v>
+        <v>0.872657913626467</v>
       </c>
       <c r="M4" t="n">
         <v>0.894499688071821</v>
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.699644803977167</v>
+        <v>0.700580371227263</v>
       </c>
       <c r="C5" t="n">
         <v>0.732870289440397</v>
@@ -635,7 +635,7 @@
         <v>0.58767644567848</v>
       </c>
       <c r="L5" t="n">
-        <v>0.72514029245591</v>
+        <v>0.733977871206694</v>
       </c>
       <c r="M5" t="n">
         <v>0.814900578705803</v>
@@ -649,7 +649,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.698715666285492</v>
+        <v>0.699085587371477</v>
       </c>
       <c r="C6" t="n">
         <v>0.689223510024568</v>
@@ -679,7 +679,7 @@
         <v>0.622706835721545</v>
       </c>
       <c r="L6" t="n">
-        <v>0.825522087700358</v>
+        <v>0.828908511397624</v>
       </c>
       <c r="M6" t="n">
         <v>0.863575793802146</v>
@@ -693,7 +693,7 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.696886644817168</v>
+        <v>0.696623799252374</v>
       </c>
       <c r="C7" t="n">
         <v>0.698508510826339</v>
@@ -723,7 +723,7 @@
         <v>0.683253184348732</v>
       </c>
       <c r="L7" t="n">
-        <v>0.746898541844184</v>
+        <v>0.745017642011337</v>
       </c>
       <c r="M7" t="n">
         <v>0.883360143018035</v>
@@ -737,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.694962460493881</v>
+        <v>0.694896977800978</v>
       </c>
       <c r="C8" t="n">
         <v>0.761932435910776</v>
@@ -767,7 +767,7 @@
         <v>0.67681938156</v>
       </c>
       <c r="L8" t="n">
-        <v>0.52836576507021</v>
+        <v>0.528025667438765</v>
       </c>
       <c r="M8" t="n">
         <v>0.836791104476278</v>
@@ -781,7 +781,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.683174203642518</v>
+        <v>0.683123223291107</v>
       </c>
       <c r="C9" t="n">
         <v>0.69192411456902</v>
@@ -811,7 +811,7 @@
         <v>0.59008286280892</v>
       </c>
       <c r="L9" t="n">
-        <v>0.875589503017251</v>
+        <v>0.875248081044094</v>
       </c>
       <c r="M9" t="n">
         <v>0.858825470219245</v>
@@ -825,7 +825,7 @@
         <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.682119272063001</v>
+        <v>0.682371653787096</v>
       </c>
       <c r="C10" t="n">
         <v>0.746931207916325</v>
@@ -855,7 +855,7 @@
         <v>0.7245399038347</v>
       </c>
       <c r="L10" t="n">
-        <v>0.50012458723726</v>
+        <v>0.50192316323788</v>
       </c>
       <c r="M10" t="n">
         <v>0.770097780765828</v>
@@ -869,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.526319576644156</v>
+        <v>0.526444294027161</v>
       </c>
       <c r="C11" t="n">
         <v>0.551475483086733</v>
@@ -899,7 +899,7 @@
         <v>0.46350801136536</v>
       </c>
       <c r="L11" t="n">
-        <v>0.514246894490421</v>
+        <v>0.514890820206037</v>
       </c>
       <c r="M11" t="n">
         <v>0.695189510992556</v>
